--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A98C4E81-0A19-4541-8D9B-4326B7A88BD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F9B57E-DE23-4261-886C-1365522B2EA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
+    <workbookView xWindow="735" yWindow="6090" windowWidth="25755" windowHeight="8925" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="207">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -649,6 +649,9 @@
   </si>
   <si>
     <t>الجوف</t>
+  </si>
+  <si>
+    <t>cc</t>
   </si>
 </sst>
 </file>
@@ -1046,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2572,6 +2575,11 @@
         <v>39.320599999999999</v>
       </c>
     </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>206</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E32BD7-47E0-457C-B9FC-A89A282BCDCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958D15CB-903B-47C9-9B8B-40B71FACE9FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="313">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -931,6 +931,48 @@
   </si>
   <si>
     <t>حريملاء</t>
+  </si>
+  <si>
+    <t>Al rain</t>
+  </si>
+  <si>
+    <t>الرين</t>
+  </si>
+  <si>
+    <t>Al Sulayyil</t>
+  </si>
+  <si>
+    <t>السليل</t>
+  </si>
+  <si>
+    <t>Rowaidat Alard</t>
+  </si>
+  <si>
+    <t>رويضة العرض</t>
+  </si>
+  <si>
+    <t>Al Gara</t>
+  </si>
+  <si>
+    <t>القرى</t>
+  </si>
+  <si>
+    <t>Taima</t>
+  </si>
+  <si>
+    <t>تيماء</t>
+  </si>
+  <si>
+    <t>Wethylan</t>
+  </si>
+  <si>
+    <t>وثيلان</t>
+  </si>
+  <si>
+    <t>Marat</t>
+  </si>
+  <si>
+    <t>مرات</t>
   </si>
 </sst>
 </file>
@@ -1313,11 +1355,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G125"/>
+      <selection pane="bottomLeft" sqref="A1:G132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4206,6 +4248,167 @@
         <v>220</v>
       </c>
     </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D126" s="1">
+        <v>23.542763999999998</v>
+      </c>
+      <c r="E126" s="1">
+        <v>45.515281999999999</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D127" s="1">
+        <v>20.466460000000001</v>
+      </c>
+      <c r="E127" s="1">
+        <v>45.562559999999998</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D128" s="1">
+        <v>23.774208999999999</v>
+      </c>
+      <c r="E128" s="1">
+        <v>44.763002</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D129" s="1">
+        <v>18.241785</v>
+      </c>
+      <c r="E129" s="1">
+        <v>42.488838000000001</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D130" s="1">
+        <v>27.610130000000002</v>
+      </c>
+      <c r="E130" s="1">
+        <v>38.521644000000002</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D131" s="1">
+        <v>24.540604999999999</v>
+      </c>
+      <c r="E131" s="1">
+        <v>46.693131000000001</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D132" s="1">
+        <v>25.069855</v>
+      </c>
+      <c r="E132" s="1">
+        <v>45.464036999999998</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G91" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958D15CB-903B-47C9-9B8B-40B71FACE9FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF75FDF-0ACC-4E86-B2EC-1C6C973C76E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="319">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -973,13 +973,31 @@
   </si>
   <si>
     <t>مرات</t>
+  </si>
+  <si>
+    <t>Haql</t>
+  </si>
+  <si>
+    <t>حقل</t>
+  </si>
+  <si>
+    <t>Al Qouz</t>
+  </si>
+  <si>
+    <t>القوز</t>
+  </si>
+  <si>
+    <t>Rumah</t>
+  </si>
+  <si>
+    <t>رماح</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -995,8 +1013,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1007,6 +1032,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1034,15 +1064,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1355,11 +1388,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G132"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:G135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3606,65 +3639,65 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="D98" s="1">
-        <v>29.8874</v>
+        <v>17.734352999999999</v>
       </c>
       <c r="E98" s="1">
-        <v>39.320599999999999</v>
+        <v>42.264575000000001</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D99" s="1">
-        <v>17.734352999999999</v>
+        <v>26.661256999999999</v>
       </c>
       <c r="E99" s="1">
-        <v>42.264575000000001</v>
+        <v>49.926113999999998</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D100" s="1">
-        <v>26.661256999999999</v>
+        <v>27.557566000000001</v>
       </c>
       <c r="E100" s="1">
-        <v>49.926113999999998</v>
+        <v>47.701819</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>227</v>
@@ -3675,19 +3708,19 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D101" s="1">
-        <v>27.557566000000001</v>
+        <v>24.741019999999999</v>
       </c>
       <c r="E101" s="1">
-        <v>47.701819</v>
+        <v>50.756706999999999</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>227</v>
@@ -3698,88 +3731,88 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D102" s="1">
-        <v>24.741019999999999</v>
+        <v>25.686066</v>
       </c>
       <c r="E102" s="1">
-        <v>50.756706999999999</v>
+        <v>39.292119999999997</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D103" s="1">
-        <v>25.686066</v>
+        <v>17.237791999999999</v>
       </c>
       <c r="E103" s="1">
-        <v>39.292119999999997</v>
+        <v>42.939901999999996</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D104" s="1">
-        <v>17.237791999999999</v>
+        <v>24.613032</v>
       </c>
       <c r="E104" s="1">
-        <v>42.939901999999996</v>
+        <v>46.152875000000002</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D105" s="1">
-        <v>24.613032</v>
+        <v>22.290050000000001</v>
       </c>
       <c r="E105" s="1">
-        <v>46.152875000000002</v>
+        <v>46.719341</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>210</v>
@@ -3790,42 +3823,42 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D106" s="1">
-        <v>22.290050000000001</v>
+        <v>21.05489</v>
       </c>
       <c r="E106" s="1">
-        <v>46.719341</v>
+        <v>40.988163999999998</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D107" s="1">
-        <v>21.05489</v>
+        <v>22.284344999999998</v>
       </c>
       <c r="E107" s="1">
-        <v>40.988163999999998</v>
+        <v>39.799393000000002</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>218</v>
@@ -3836,45 +3869,45 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D108" s="1">
-        <v>22.284344999999998</v>
+        <v>26.788481000000001</v>
       </c>
       <c r="E108" s="1">
-        <v>39.799393000000002</v>
+        <v>41.310181</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D109" s="1">
-        <v>26.788481000000001</v>
+        <v>30.072724000000001</v>
       </c>
       <c r="E109" s="1">
-        <v>41.310181</v>
+        <v>40.353726999999999</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>222</v>
@@ -3882,45 +3915,45 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D110" s="1">
-        <v>30.072724000000001</v>
+        <v>17.338950000000001</v>
       </c>
       <c r="E110" s="1">
-        <v>40.353726999999999</v>
+        <v>43.131400999999997</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D111" s="1">
-        <v>17.338950000000001</v>
+        <v>19.532979000000001</v>
       </c>
       <c r="E111" s="1">
-        <v>43.131400999999997</v>
+        <v>43.503368000000002</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>225</v>
@@ -3928,206 +3961,206 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D112" s="1">
-        <v>19.532979000000001</v>
+        <v>25.279633</v>
       </c>
       <c r="E112" s="1">
-        <v>43.503368000000002</v>
+        <v>45.870711</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D113" s="1">
-        <v>25.279633</v>
+        <v>31.370989999999999</v>
       </c>
       <c r="E113" s="1">
-        <v>45.870711</v>
+        <v>41.439948999999999</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D114" s="1">
-        <v>31.370989999999999</v>
+        <v>18.100155999999998</v>
       </c>
       <c r="E114" s="1">
-        <v>41.439948999999999</v>
+        <v>43.117638999999997</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D115" s="1">
-        <v>18.100155999999998</v>
+        <v>27.267593000000002</v>
       </c>
       <c r="E115" s="1">
-        <v>43.117638999999997</v>
+        <v>48.42709</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D116" s="1">
-        <v>27.267593000000002</v>
+        <v>23.976928000000001</v>
       </c>
       <c r="E116" s="1">
-        <v>48.42709</v>
+        <v>47.155271999999997</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D117" s="1">
-        <v>23.976928000000001</v>
+        <v>35.717683999999998</v>
       </c>
       <c r="E117" s="1">
-        <v>47.155271999999997</v>
+        <v>36.406824999999998</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D118" s="1">
-        <v>25.419733999999998</v>
+        <v>31.514769999999999</v>
       </c>
       <c r="E118" s="1">
-        <v>49.676468</v>
+        <v>37.112566999999999</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D119" s="1">
-        <v>35.717683999999998</v>
+        <v>19.943904</v>
       </c>
       <c r="E119" s="1">
-        <v>36.406824999999998</v>
+        <v>41.242842000000003</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D120" s="1">
-        <v>31.514769999999999</v>
+        <v>31.282564000000001</v>
       </c>
       <c r="E120" s="1">
-        <v>37.112566999999999</v>
+        <v>40.101582000000001</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>222</v>
@@ -4135,88 +4168,88 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D121" s="1">
-        <v>19.943904</v>
+        <v>19.573253999999999</v>
       </c>
       <c r="E121" s="1">
-        <v>41.242842000000003</v>
+        <v>41.676099000000001</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D122" s="1">
-        <v>31.282564000000001</v>
+        <v>25.247889000000001</v>
       </c>
       <c r="E122" s="1">
-        <v>40.101582000000001</v>
+        <v>45.253179000000003</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D123" s="1">
-        <v>19.573253999999999</v>
+        <v>25.115893</v>
       </c>
       <c r="E123" s="1">
-        <v>41.676099000000001</v>
+        <v>46.103627000000003</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D124" s="1">
-        <v>25.247889000000001</v>
+        <v>23.542763999999998</v>
       </c>
       <c r="E124" s="1">
-        <v>45.253179000000003</v>
+        <v>45.515281999999999</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>210</v>
@@ -4227,19 +4260,19 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D125" s="1">
-        <v>25.115893</v>
+        <v>20.466460000000001</v>
       </c>
       <c r="E125" s="1">
-        <v>46.103627000000003</v>
+        <v>45.562559999999998</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>210</v>
@@ -4250,19 +4283,19 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D126" s="1">
-        <v>23.542763999999998</v>
+        <v>23.774208999999999</v>
       </c>
       <c r="E126" s="1">
-        <v>45.515281999999999</v>
+        <v>44.763002</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>210</v>
@@ -4273,139 +4306,208 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D127" s="1">
-        <v>20.466460000000001</v>
+        <v>18.241785</v>
       </c>
       <c r="E127" s="1">
-        <v>45.562559999999998</v>
+        <v>42.488838000000001</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D128" s="1">
-        <v>23.774208999999999</v>
+        <v>27.610130000000002</v>
       </c>
       <c r="E128" s="1">
-        <v>44.763002</v>
+        <v>38.521644000000002</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D129" s="1">
-        <v>18.241785</v>
+        <v>24.540604999999999</v>
       </c>
       <c r="E129" s="1">
-        <v>42.488838000000001</v>
+        <v>46.693131000000001</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D130" s="1">
-        <v>27.610130000000002</v>
+        <v>25.069855</v>
       </c>
       <c r="E130" s="1">
-        <v>38.521644000000002</v>
+        <v>45.464036999999998</v>
       </c>
       <c r="F130" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D131" s="3">
+        <v>29.8874</v>
+      </c>
+      <c r="E131" s="3">
+        <v>39.320599999999999</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D132" s="3">
+        <v>25.419733999999998</v>
+      </c>
+      <c r="E132" s="3">
+        <v>49.676468</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D133" s="1">
+        <v>29.285453</v>
+      </c>
+      <c r="E133" s="1">
+        <v>34.944589000000001</v>
+      </c>
+      <c r="F133" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G130" s="1" t="s">
+      <c r="G133" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D131" s="1">
-        <v>24.540604999999999</v>
-      </c>
-      <c r="E131" s="1">
-        <v>46.693131000000001</v>
-      </c>
-      <c r="F131" s="1" t="s">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D134" s="1">
+        <v>18.97634</v>
+      </c>
+      <c r="E134" s="1">
+        <v>41.301167</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D135" s="1">
+        <v>25.563182000000001</v>
+      </c>
+      <c r="E135" s="1">
+        <v>47.160744999999999</v>
+      </c>
+      <c r="F135" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G131" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D132" s="1">
-        <v>25.069855</v>
-      </c>
-      <c r="E132" s="1">
-        <v>45.464036999999998</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G132" s="1" t="s">
+      <c r="G135" s="1" t="s">
         <v>220</v>
       </c>
     </row>

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF75FDF-0ACC-4E86-B2EC-1C6C973C76E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3968063-81B5-473B-9AF0-C5DEBB8F7659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="327">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -991,6 +991,30 @@
   </si>
   <si>
     <t>رماح</t>
+  </si>
+  <si>
+    <t>Rejal Almaa</t>
+  </si>
+  <si>
+    <t>رجال المع</t>
+  </si>
+  <si>
+    <t>Shuwaq</t>
+  </si>
+  <si>
+    <t>شواق</t>
+  </si>
+  <si>
+    <t>Al Shaabah</t>
+  </si>
+  <si>
+    <t>الشعبة</t>
+  </si>
+  <si>
+    <t>Tumair</t>
+  </si>
+  <si>
+    <t>تمير</t>
   </si>
 </sst>
 </file>
@@ -1388,11 +1412,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G135"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G135"/>
+      <selection pane="bottomLeft" sqref="A1:G139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4511,6 +4535,98 @@
         <v>220</v>
       </c>
     </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D136" s="1">
+        <v>17.407972000000001</v>
+      </c>
+      <c r="E136" s="1">
+        <v>43.074370999999999</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D137" s="1">
+        <v>19.919412999999999</v>
+      </c>
+      <c r="E137" s="1">
+        <v>40.735523999999998</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D138" s="1">
+        <v>25.480855999999999</v>
+      </c>
+      <c r="E138" s="1">
+        <v>49.622691000000003</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D139" s="1">
+        <v>25.710602999999999</v>
+      </c>
+      <c r="E139" s="1">
+        <v>45.872608</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G91" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3968063-81B5-473B-9AF0-C5DEBB8F7659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D051001E-2940-4D5C-805A-35A140649AC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="329">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -1015,6 +1015,12 @@
   </si>
   <si>
     <t>تمير</t>
+  </si>
+  <si>
+    <t>Al Sulaimaniah</t>
+  </si>
+  <si>
+    <t>السليمانية</t>
   </si>
 </sst>
 </file>
@@ -1412,11 +1418,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G139"/>
+  <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G139"/>
+      <selection pane="bottomLeft" sqref="A1:G140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4627,6 +4633,29 @@
         <v>220</v>
       </c>
     </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D140" s="1">
+        <v>30.589766999999998</v>
+      </c>
+      <c r="E140" s="1">
+        <v>41.148207999999997</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G91" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D051001E-2940-4D5C-805A-35A140649AC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78006469-98F6-4AF1-B277-921D4F954B68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="337">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -1021,6 +1021,30 @@
   </si>
   <si>
     <t>السليمانية</t>
+  </si>
+  <si>
+    <t>Al Oyoun</t>
+  </si>
+  <si>
+    <t>العيون</t>
+  </si>
+  <si>
+    <t>Thowal</t>
+  </si>
+  <si>
+    <t>ثول</t>
+  </si>
+  <si>
+    <t>Turaf</t>
+  </si>
+  <si>
+    <t>طريف</t>
+  </si>
+  <si>
+    <t>Al Rafaia</t>
+  </si>
+  <si>
+    <t>الرفيعة (رفائع الجمش)</t>
   </si>
 </sst>
 </file>
@@ -1418,11 +1442,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G140"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G140"/>
+      <selection pane="bottomLeft" sqref="A1:G144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4656,6 +4680,98 @@
         <v>222</v>
       </c>
     </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D141" s="1">
+        <v>25.674498</v>
+      </c>
+      <c r="E141" s="1">
+        <v>49.551423</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D142" s="1">
+        <v>22.276098999999999</v>
+      </c>
+      <c r="E142" s="1">
+        <v>39.112707999999998</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D143" s="1">
+        <v>31.665737</v>
+      </c>
+      <c r="E143" s="1">
+        <v>38.661921999999997</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D144" s="1">
+        <v>24.679561</v>
+      </c>
+      <c r="E144" s="1">
+        <v>43.684036999999996</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G91" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78006469-98F6-4AF1-B277-921D4F954B68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF1EFC2-FA84-4478-922E-E364F5A3DBF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="345">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -1045,6 +1045,30 @@
   </si>
   <si>
     <t>الرفيعة (رفائع الجمش)</t>
+  </si>
+  <si>
+    <t>Al Bashayer</t>
+  </si>
+  <si>
+    <t>البشائر</t>
+  </si>
+  <si>
+    <t>Dhahran Al Janoub</t>
+  </si>
+  <si>
+    <t>ظهران الجنوب</t>
+  </si>
+  <si>
+    <t>Al Bathaa</t>
+  </si>
+  <si>
+    <t>البطحاء</t>
+  </si>
+  <si>
+    <t>Oyoun Al Jawa</t>
+  </si>
+  <si>
+    <t>عيون الجواء</t>
   </si>
 </sst>
 </file>
@@ -1442,11 +1466,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:G148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G144"/>
+      <selection pane="bottomLeft" sqref="A1:G148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4772,6 +4796,98 @@
         <v>220</v>
       </c>
     </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D145" s="1">
+        <v>19.741637000000001</v>
+      </c>
+      <c r="E145" s="1">
+        <v>41.924492999999998</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D146" s="1">
+        <v>17.664974000000001</v>
+      </c>
+      <c r="E146" s="1">
+        <v>43.517555000000002</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D147" s="1">
+        <v>24.130382000000001</v>
+      </c>
+      <c r="E147" s="1">
+        <v>51.570081999999999</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D148" s="1">
+        <v>26.516076000000002</v>
+      </c>
+      <c r="E148" s="1">
+        <v>43.619838999999999</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G91" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF1EFC2-FA84-4478-922E-E364F5A3DBF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940F2D8A-E3C8-467C-B070-1DF329B1996E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="353">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -1069,6 +1069,30 @@
   </si>
   <si>
     <t>عيون الجواء</t>
+  </si>
+  <si>
+    <t>Al Namas</t>
+  </si>
+  <si>
+    <t>النماص</t>
+  </si>
+  <si>
+    <t>Billasmar</t>
+  </si>
+  <si>
+    <t>بللسمر</t>
+  </si>
+  <si>
+    <t>Al Harth</t>
+  </si>
+  <si>
+    <t>الحرث</t>
+  </si>
+  <si>
+    <t>Baqaa</t>
+  </si>
+  <si>
+    <t>بقعاء</t>
   </si>
 </sst>
 </file>
@@ -1466,11 +1490,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G148"/>
+  <dimension ref="A1:G152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G148"/>
+      <selection pane="bottomLeft" sqref="A1:G152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4888,6 +4912,98 @@
         <v>220</v>
       </c>
     </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D149" s="1">
+        <v>19.115787999999998</v>
+      </c>
+      <c r="E149" s="1">
+        <v>42.168045999999997</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D150" s="1">
+        <v>18.793106000000002</v>
+      </c>
+      <c r="E150" s="1">
+        <v>42.255910999999998</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D151" s="1">
+        <v>16.811212999999999</v>
+      </c>
+      <c r="E151" s="1">
+        <v>43.152147999999997</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D152" s="1">
+        <v>27.889050000000001</v>
+      </c>
+      <c r="E152" s="1">
+        <v>42.415892999999997</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G91" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940F2D8A-E3C8-467C-B070-1DF329B1996E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A54A19C-DF10-421A-8019-A0571AAB7C5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="357">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -1093,6 +1093,18 @@
   </si>
   <si>
     <t>بقعاء</t>
+  </si>
+  <si>
+    <t>Al Asyah</t>
+  </si>
+  <si>
+    <t>الأسياح</t>
+  </si>
+  <si>
+    <t>Al Hareeq</t>
+  </si>
+  <si>
+    <t>الحريق</t>
   </si>
 </sst>
 </file>
@@ -1490,11 +1502,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G152"/>
+  <dimension ref="A1:G154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G152"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:G154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5004,6 +5016,52 @@
         <v>222</v>
       </c>
     </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D153" s="1">
+        <v>27.378982000000001</v>
+      </c>
+      <c r="E153" s="1">
+        <v>44.237861000000002</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D154" s="1">
+        <v>23.624414000000002</v>
+      </c>
+      <c r="E154" s="1">
+        <v>46.511069999999997</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G91" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A54A19C-DF10-421A-8019-A0571AAB7C5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF975A5-9494-46F9-8728-93D113C78C45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="359">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -1105,6 +1105,12 @@
   </si>
   <si>
     <t>الحريق</t>
+  </si>
+  <si>
+    <t>Mogag</t>
+  </si>
+  <si>
+    <t>موقق</t>
   </si>
 </sst>
 </file>
@@ -1502,11 +1508,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:G155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G154"/>
+      <selection pane="bottomLeft" activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5062,6 +5068,29 @@
         <v>220</v>
       </c>
     </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D155" s="1">
+        <v>27.469104999999999</v>
+      </c>
+      <c r="E155" s="1">
+        <v>41.196739000000001</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G91" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF975A5-9494-46F9-8728-93D113C78C45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A35DAF-1723-403A-A4CB-044A85FED570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="363">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -1111,6 +1111,18 @@
   </si>
   <si>
     <t>موقق</t>
+  </si>
+  <si>
+    <t>Thar</t>
+  </si>
+  <si>
+    <t>ثار</t>
+  </si>
+  <si>
+    <t>Al Farshah</t>
+  </si>
+  <si>
+    <t>الفرشة</t>
   </si>
 </sst>
 </file>
@@ -1508,11 +1520,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G155"/>
+  <dimension ref="A1:G157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C150" sqref="C150"/>
+      <selection pane="bottomLeft" sqref="A1:G157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5091,6 +5103,52 @@
         <v>222</v>
       </c>
     </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D156" s="1">
+        <v>17.981574999999999</v>
+      </c>
+      <c r="E156" s="1">
+        <v>44.105584999999998</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D157" s="1">
+        <v>17.753822</v>
+      </c>
+      <c r="E157" s="1">
+        <v>43.154803999999999</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G91" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A35DAF-1723-403A-A4CB-044A85FED570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B86E6F7-4D96-4874-A25D-7690F76A1AC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="369">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -729,9 +729,6 @@
     <t>Wadi Al Dawasir</t>
   </si>
   <si>
-    <t>وادى الداوسر</t>
-  </si>
-  <si>
     <t>Al Majardah</t>
   </si>
   <si>
@@ -1123,6 +1120,27 @@
   </si>
   <si>
     <t>الفرشة</t>
+  </si>
+  <si>
+    <t>وادى الدواسر</t>
+  </si>
+  <si>
+    <t>Fayfa</t>
+  </si>
+  <si>
+    <t>فيفاء</t>
+  </si>
+  <si>
+    <t>Ahad Al Masarhah</t>
+  </si>
+  <si>
+    <t>أحد المسارحة</t>
+  </si>
+  <si>
+    <t>Al Mahani</t>
+  </si>
+  <si>
+    <t>المحانى</t>
   </si>
 </sst>
 </file>
@@ -1520,11 +1538,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G157"/>
+  <dimension ref="A1:G160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G157"/>
+      <selection pane="bottomLeft" sqref="A1:G160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3616,7 +3634,7 @@
         <v>230</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>231</v>
+        <v>362</v>
       </c>
       <c r="D91" s="1">
         <v>20.435752999999998</v>
@@ -3633,13 +3651,13 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="D92" s="1">
         <v>19.127485</v>
@@ -3656,13 +3674,13 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="D93" s="1">
         <v>16.968204</v>
@@ -3679,13 +3697,13 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="D94" s="1">
         <v>29.811488000000001</v>
@@ -3702,13 +3720,13 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="D95" s="1">
         <v>22.723503999999998</v>
@@ -3725,13 +3743,13 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="D96" s="1">
         <v>24.631665999999999</v>
@@ -3748,13 +3766,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="D97" s="1">
         <v>25.049199999999999</v>
@@ -3771,13 +3789,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="D98" s="1">
         <v>17.734352999999999</v>
@@ -3794,13 +3812,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="D99" s="1">
         <v>26.661256999999999</v>
@@ -3817,13 +3835,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="D100" s="1">
         <v>27.557566000000001</v>
@@ -3840,13 +3858,13 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="D101" s="1">
         <v>24.741019999999999</v>
@@ -3863,13 +3881,13 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="D102" s="1">
         <v>25.686066</v>
@@ -3886,13 +3904,13 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="D103" s="1">
         <v>17.237791999999999</v>
@@ -3909,13 +3927,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="D104" s="1">
         <v>24.613032</v>
@@ -3932,13 +3950,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="D105" s="1">
         <v>22.290050000000001</v>
@@ -3955,13 +3973,13 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="D106" s="1">
         <v>21.05489</v>
@@ -3978,13 +3996,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="D107" s="1">
         <v>22.284344999999998</v>
@@ -4001,13 +4019,13 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="D108" s="1">
         <v>26.788481000000001</v>
@@ -4024,13 +4042,13 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="D109" s="1">
         <v>30.072724000000001</v>
@@ -4047,13 +4065,13 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="D110" s="1">
         <v>17.338950000000001</v>
@@ -4070,13 +4088,13 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="D111" s="1">
         <v>19.532979000000001</v>
@@ -4093,13 +4111,13 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="D112" s="1">
         <v>25.279633</v>
@@ -4116,13 +4134,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="D113" s="1">
         <v>31.370989999999999</v>
@@ -4139,13 +4157,13 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="D114" s="1">
         <v>18.100155999999998</v>
@@ -4162,13 +4180,13 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="D115" s="1">
         <v>27.267593000000002</v>
@@ -4185,13 +4203,13 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="D116" s="1">
         <v>23.976928000000001</v>
@@ -4208,13 +4226,13 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="D117" s="1">
         <v>35.717683999999998</v>
@@ -4231,13 +4249,13 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="D118" s="1">
         <v>31.514769999999999</v>
@@ -4254,13 +4272,13 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="D119" s="1">
         <v>19.943904</v>
@@ -4277,13 +4295,13 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="D120" s="1">
         <v>31.282564000000001</v>
@@ -4300,13 +4318,13 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="D121" s="1">
         <v>19.573253999999999</v>
@@ -4323,13 +4341,13 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="D122" s="1">
         <v>25.247889000000001</v>
@@ -4346,13 +4364,13 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="D123" s="1">
         <v>25.115893</v>
@@ -4369,13 +4387,13 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="D124" s="1">
         <v>23.542763999999998</v>
@@ -4392,13 +4410,13 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="D125" s="1">
         <v>20.466460000000001</v>
@@ -4415,13 +4433,13 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="D126" s="1">
         <v>23.774208999999999</v>
@@ -4438,13 +4456,13 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="D127" s="1">
         <v>18.241785</v>
@@ -4461,13 +4479,13 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="D128" s="1">
         <v>27.610130000000002</v>
@@ -4484,13 +4502,13 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="D129" s="1">
         <v>24.540604999999999</v>
@@ -4507,13 +4525,13 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="D130" s="1">
         <v>25.069855</v>
@@ -4553,13 +4571,13 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="D132" s="3">
         <v>25.419733999999998</v>
@@ -4576,13 +4594,13 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="D133" s="1">
         <v>29.285453</v>
@@ -4599,13 +4617,13 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="D134" s="1">
         <v>18.97634</v>
@@ -4622,13 +4640,13 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="D135" s="1">
         <v>25.563182000000001</v>
@@ -4645,13 +4663,13 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="D136" s="1">
         <v>17.407972000000001</v>
@@ -4668,13 +4686,13 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="D137" s="1">
         <v>19.919412999999999</v>
@@ -4691,13 +4709,13 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="D138" s="1">
         <v>25.480855999999999</v>
@@ -4714,13 +4732,13 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="D139" s="1">
         <v>25.710602999999999</v>
@@ -4737,13 +4755,13 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="D140" s="1">
         <v>30.589766999999998</v>
@@ -4760,13 +4778,13 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="D141" s="1">
         <v>25.674498</v>
@@ -4783,13 +4801,13 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="D142" s="1">
         <v>22.276098999999999</v>
@@ -4806,13 +4824,13 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="D143" s="1">
         <v>31.665737</v>
@@ -4829,13 +4847,13 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="D144" s="1">
         <v>24.679561</v>
@@ -4852,13 +4870,13 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="D145" s="1">
         <v>19.741637000000001</v>
@@ -4875,13 +4893,13 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="D146" s="1">
         <v>17.664974000000001</v>
@@ -4898,13 +4916,13 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="D147" s="1">
         <v>24.130382000000001</v>
@@ -4921,13 +4939,13 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="D148" s="1">
         <v>26.516076000000002</v>
@@ -4944,13 +4962,13 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="D149" s="1">
         <v>19.115787999999998</v>
@@ -4967,13 +4985,13 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="D150" s="1">
         <v>18.793106000000002</v>
@@ -4990,13 +5008,13 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="D151" s="1">
         <v>16.811212999999999</v>
@@ -5013,13 +5031,13 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="D152" s="1">
         <v>27.889050000000001</v>
@@ -5036,13 +5054,13 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="D153" s="1">
         <v>27.378982000000001</v>
@@ -5059,13 +5077,13 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="D154" s="1">
         <v>23.624414000000002</v>
@@ -5082,13 +5100,13 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="D155" s="1">
         <v>27.469104999999999</v>
@@ -5105,13 +5123,13 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="D156" s="1">
         <v>17.981574999999999</v>
@@ -5128,13 +5146,13 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="D157" s="1">
         <v>17.753822</v>
@@ -5147,6 +5165,75 @@
       </c>
       <c r="G157" s="1" t="s">
         <v>225</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D158" s="1">
+        <v>17.246535999999999</v>
+      </c>
+      <c r="E158" s="1">
+        <v>43.107962000000001</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D159" s="1">
+        <v>16.711358000000001</v>
+      </c>
+      <c r="E159" s="1">
+        <v>42.956038999999997</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D160" s="1">
+        <v>22.497288999999999</v>
+      </c>
+      <c r="E160" s="1">
+        <v>40.442901999999997</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B86E6F7-4D96-4874-A25D-7690F76A1AC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F7366C-24E9-4962-ADF7-5443862A70B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="375">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -396,9 +396,6 @@
     <t>Duba, Saudi Arabia</t>
   </si>
   <si>
-    <t>ضبا</t>
-  </si>
-  <si>
     <t>Al Jafr</t>
   </si>
   <si>
@@ -891,9 +888,6 @@
     <t>Al Suhan</t>
   </si>
   <si>
-    <t>الصحن</t>
-  </si>
-  <si>
     <t>Manfath Al Hadithah</t>
   </si>
   <si>
@@ -1141,6 +1135,30 @@
   </si>
   <si>
     <t>المحانى</t>
+  </si>
+  <si>
+    <t>ضباء</t>
+  </si>
+  <si>
+    <t>السحن</t>
+  </si>
+  <si>
+    <t>Ranyah</t>
+  </si>
+  <si>
+    <t>رنية</t>
+  </si>
+  <si>
+    <t>Dhamad</t>
+  </si>
+  <si>
+    <t>ضمد</t>
+  </si>
+  <si>
+    <t>Nafy</t>
+  </si>
+  <si>
+    <t>نفى</t>
   </si>
 </sst>
 </file>
@@ -1538,11 +1556,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G160"/>
+      <selection pane="bottomLeft" sqref="A1:G163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1573,10 +1591,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1596,10 +1614,10 @@
         <v>50.088799999999999</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1619,10 +1637,10 @@
         <v>49.998199999999997</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1642,10 +1660,10 @@
         <v>49.5687</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1665,10 +1683,10 @@
         <v>50.197099999999999</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1688,10 +1706,10 @@
         <v>49.998199999999997</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1711,10 +1729,10 @@
         <v>48.488700000000001</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1734,21 +1752,21 @@
         <v>45.942</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="D9" s="1">
         <v>25.916799999999999</v>
@@ -1757,10 +1775,10 @@
         <v>49.670699999999997</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1780,10 +1798,10 @@
         <v>41.471299999999999</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1803,21 +1821,21 @@
         <v>41.320999999999998</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="D12" s="1">
         <v>20.435099999999998</v>
@@ -1826,21 +1844,21 @@
         <v>41.680999999999997</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="D13" s="1">
         <v>20.1083</v>
@@ -1849,21 +1867,21 @@
         <v>41.285899999999998</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="D14" s="1">
         <v>19.864899999999999</v>
@@ -1872,10 +1890,10 @@
         <v>41.581200000000003</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1895,10 +1913,10 @@
         <v>37.361400000000003</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1918,21 +1936,21 @@
         <v>40.104300000000002</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="D17" s="1">
         <v>30.515499999999999</v>
@@ -1941,10 +1959,10 @@
         <v>38.221600000000002</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1964,21 +1982,21 @@
         <v>41.059600000000003</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="D19" s="1">
         <v>29.627300000000002</v>
@@ -1987,10 +2005,10 @@
         <v>43.519300000000001</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2010,10 +2028,10 @@
         <v>46.6753</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2033,10 +2051,10 @@
         <v>42.590200000000003</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2056,10 +2074,10 @@
         <v>44.831800000000001</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2079,10 +2097,10 @@
         <v>47.324800000000003</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2102,21 +2120,21 @@
         <v>46.536299999999997</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="D25" s="1">
         <v>24.0671</v>
@@ -2125,21 +2143,21 @@
         <v>45.2806</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="D26" s="1">
         <v>25.875900000000001</v>
@@ -2148,21 +2166,21 @@
         <v>45.373100000000001</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="D27" s="1">
         <v>24.5167</v>
@@ -2171,21 +2189,21 @@
         <v>44.418199999999999</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="D28" s="1">
         <v>24.471399999999999</v>
@@ -2194,21 +2212,21 @@
         <v>46.273200000000003</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="D29" s="1">
         <v>23.525065000000001</v>
@@ -2217,21 +2235,21 @@
         <v>46.845830999999997</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="D30" s="1">
         <v>25.355699999999999</v>
@@ -2240,10 +2258,10 @@
         <v>45.378700000000002</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2263,10 +2281,10 @@
         <v>43.9818</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2286,10 +2304,10 @@
         <v>43.987499999999997</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2309,10 +2327,10 @@
         <v>43.656700000000001</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2332,21 +2350,21 @@
         <v>43.522199999999998</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="D35" s="1">
         <v>25.981200000000001</v>
@@ -2355,21 +2373,21 @@
         <v>43.733400000000003</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="D36" s="1">
         <v>25.8569</v>
@@ -2378,21 +2396,21 @@
         <v>44.224200000000003</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="D37" s="1">
         <v>26.052992</v>
@@ -2401,21 +2419,21 @@
         <v>43.543151999999999</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="D38" s="1">
         <v>25.831567</v>
@@ -2424,10 +2442,10 @@
         <v>42.188487000000002</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2447,21 +2465,21 @@
         <v>39.569200000000002</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="D40" s="1">
         <v>25.059899999999999</v>
@@ -2470,21 +2488,21 @@
         <v>38.116</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="D41" s="1">
         <v>23.309830000000002</v>
@@ -2493,10 +2511,10 @@
         <v>39.779082000000002</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2516,10 +2534,10 @@
         <v>36.566200000000002</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2539,10 +2557,10 @@
         <v>36.468899999999998</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2553,7 +2571,7 @@
         <v>119</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>120</v>
+        <v>367</v>
       </c>
       <c r="D44" s="1">
         <v>27.345700000000001</v>
@@ -2562,10 +2580,10 @@
         <v>35.724299999999999</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2585,10 +2603,10 @@
         <v>42.570599999999999</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2608,10 +2626,10 @@
         <v>42.536299999999997</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2631,10 +2649,10 @@
         <v>42.935400000000001</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2654,10 +2672,10 @@
         <v>42.973300000000002</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2677,21 +2695,21 @@
         <v>42.626899999999999</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="D50" s="1">
         <v>17.0379</v>
@@ -2700,10 +2718,10 @@
         <v>43.0486</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2723,21 +2741,21 @@
         <v>41.720799999999997</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="D52" s="1">
         <v>26.857800000000001</v>
@@ -2746,10 +2764,10 @@
         <v>40.329300000000003</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2769,10 +2787,10 @@
         <v>42.766199999999998</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2792,10 +2810,10 @@
         <v>42.511699999999998</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2815,10 +2833,10 @@
         <v>42.053400000000003</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2838,10 +2856,10 @@
         <v>42.820500000000003</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2861,10 +2879,10 @@
         <v>39.857900000000001</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2884,10 +2902,10 @@
         <v>39.192500000000003</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2907,10 +2925,10 @@
         <v>40.424799999999998</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2930,10 +2948,10 @@
         <v>39.3414</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2953,10 +2971,10 @@
         <v>41.078699999999998</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2976,10 +2994,10 @@
         <v>39.018999999999998</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2999,21 +3017,21 @@
         <v>41.589700000000001</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="D64" s="1">
         <v>20.140499999999999</v>
@@ -3022,21 +3040,21 @@
         <v>40.278199999999998</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="D65" s="1">
         <v>20.727</v>
@@ -3045,21 +3063,21 @@
         <v>40.829799999999999</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="D66" s="1">
         <v>21.924600000000002</v>
@@ -3068,21 +3086,21 @@
         <v>42.028700000000001</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="D67" s="1">
         <v>20.422499999999999</v>
@@ -3091,21 +3109,21 @@
         <v>40.862699999999997</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="D68" s="1">
         <v>21.208628000000001</v>
@@ -3114,10 +3132,10 @@
         <v>41.621616000000003</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3137,10 +3155,10 @@
         <v>44.228900000000003</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -3160,10 +3178,10 @@
         <v>47.116700000000002</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3183,10 +3201,10 @@
         <v>49.588799999999999</v>
       </c>
       <c r="F71" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3206,10 +3224,10 @@
         <v>50.039299999999997</v>
       </c>
       <c r="F72" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3229,10 +3247,10 @@
         <v>38.19</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3252,10 +3270,10 @@
         <v>40.280299999999997</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3275,10 +3293,10 @@
         <v>41.8352</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3298,10 +3316,10 @@
         <v>41.969200000000001</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3321,10 +3339,10 @@
         <v>39.538119000000002</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3344,21 +3362,21 @@
         <v>44.601999999999997</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="D79" s="1">
         <v>24.402442000000001</v>
@@ -3367,21 +3385,21 @@
         <v>39.153792000000003</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="D80" s="1">
         <v>24.630700000000001</v>
@@ -3390,21 +3408,21 @@
         <v>40.9587</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="D81" s="1">
         <v>20.462800000000001</v>
@@ -3413,21 +3431,21 @@
         <v>41.072200000000002</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="D82" s="1">
         <v>19.539000000000001</v>
@@ -3436,21 +3454,21 @@
         <v>41.049500000000002</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="D83" s="1">
         <v>23.500699999999998</v>
@@ -3459,21 +3477,21 @@
         <v>40.864199999999997</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="D84" s="1">
         <v>25.405100000000001</v>
@@ -3482,21 +3500,21 @@
         <v>49.548400000000001</v>
       </c>
       <c r="F84" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="D85" s="1">
         <v>26.488900000000001</v>
@@ -3505,21 +3523,21 @@
         <v>50.028199999999998</v>
       </c>
       <c r="F85" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="D86" s="1">
         <v>26.5503</v>
@@ -3528,21 +3546,21 @@
         <v>37.9679</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="D87" s="1">
         <v>18.8401</v>
@@ -3551,21 +3569,21 @@
         <v>43.247300000000003</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="D88" s="1">
         <v>27.470400000000001</v>
@@ -3574,21 +3592,21 @@
         <v>48.485500000000002</v>
       </c>
       <c r="F88" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="D89" s="1">
         <v>22.621200000000002</v>
@@ -3597,21 +3615,21 @@
         <v>41.351100000000002</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="D90" s="1">
         <v>20.595102499999999</v>
@@ -3620,21 +3638,21 @@
         <v>41.052004099999998</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D91" s="1">
         <v>20.435752999999998</v>
@@ -3643,21 +3661,21 @@
         <v>44.863304999999997</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="D92" s="1">
         <v>19.127485</v>
@@ -3666,21 +3684,21 @@
         <v>41.923763000000001</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="D93" s="1">
         <v>16.968204</v>
@@ -3689,21 +3707,21 @@
         <v>42.843758999999999</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="D94" s="1">
         <v>29.811488000000001</v>
@@ -3712,21 +3730,21 @@
         <v>39.887321</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="D95" s="1">
         <v>22.723503999999998</v>
@@ -3735,21 +3753,21 @@
         <v>42.172265000000003</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="D96" s="1">
         <v>24.631665999999999</v>
@@ -3758,21 +3776,21 @@
         <v>46.709612999999997</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="D97" s="1">
         <v>25.049199999999999</v>
@@ -3781,21 +3799,21 @@
         <v>37.265538999999997</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="D98" s="1">
         <v>17.734352999999999</v>
@@ -3804,21 +3822,21 @@
         <v>42.264575000000001</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="D99" s="1">
         <v>26.661256999999999</v>
@@ -3827,21 +3845,21 @@
         <v>49.926113999999998</v>
       </c>
       <c r="F99" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G99" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="D100" s="1">
         <v>27.557566000000001</v>
@@ -3850,21 +3868,21 @@
         <v>47.701819</v>
       </c>
       <c r="F100" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G100" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="D101" s="1">
         <v>24.741019999999999</v>
@@ -3873,21 +3891,21 @@
         <v>50.756706999999999</v>
       </c>
       <c r="F101" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G101" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="D102" s="1">
         <v>25.686066</v>
@@ -3896,21 +3914,21 @@
         <v>39.292119999999997</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="D103" s="1">
         <v>17.237791999999999</v>
@@ -3919,21 +3937,21 @@
         <v>42.939901999999996</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="D104" s="1">
         <v>24.613032</v>
@@ -3942,21 +3960,21 @@
         <v>46.152875000000002</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="D105" s="1">
         <v>22.290050000000001</v>
@@ -3965,21 +3983,21 @@
         <v>46.719341</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="D106" s="1">
         <v>21.05489</v>
@@ -3988,21 +4006,21 @@
         <v>40.988163999999998</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="D107" s="1">
         <v>22.284344999999998</v>
@@ -4011,21 +4029,21 @@
         <v>39.799393000000002</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="D108" s="1">
         <v>26.788481000000001</v>
@@ -4034,21 +4052,21 @@
         <v>41.310181</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="D109" s="1">
         <v>30.072724000000001</v>
@@ -4057,21 +4075,21 @@
         <v>40.353726999999999</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="D110" s="1">
         <v>17.338950000000001</v>
@@ -4080,21 +4098,21 @@
         <v>43.131400999999997</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="D111" s="1">
         <v>19.532979000000001</v>
@@ -4103,21 +4121,21 @@
         <v>43.503368000000002</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="D112" s="1">
         <v>25.279633</v>
@@ -4126,21 +4144,21 @@
         <v>45.870711</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="D113" s="1">
         <v>31.370989999999999</v>
@@ -4149,21 +4167,21 @@
         <v>41.439948999999999</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="D114" s="1">
         <v>18.100155999999998</v>
@@ -4172,21 +4190,21 @@
         <v>43.117638999999997</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="D115" s="1">
         <v>27.267593000000002</v>
@@ -4195,21 +4213,21 @@
         <v>48.42709</v>
       </c>
       <c r="F115" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G115" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="D116" s="1">
         <v>23.976928000000001</v>
@@ -4218,21 +4236,21 @@
         <v>47.155271999999997</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>285</v>
+        <v>368</v>
       </c>
       <c r="D117" s="1">
         <v>35.717683999999998</v>
@@ -4241,21 +4259,21 @@
         <v>36.406824999999998</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D118" s="1">
         <v>31.514769999999999</v>
@@ -4264,21 +4282,21 @@
         <v>37.112566999999999</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D119" s="1">
         <v>19.943904</v>
@@ -4287,21 +4305,21 @@
         <v>41.242842000000003</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D120" s="1">
         <v>31.282564000000001</v>
@@ -4310,21 +4328,21 @@
         <v>40.101582000000001</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D121" s="1">
         <v>19.573253999999999</v>
@@ -4333,21 +4351,21 @@
         <v>41.676099000000001</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D122" s="1">
         <v>25.247889000000001</v>
@@ -4356,21 +4374,21 @@
         <v>45.253179000000003</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D123" s="1">
         <v>25.115893</v>
@@ -4379,21 +4397,21 @@
         <v>46.103627000000003</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D124" s="1">
         <v>23.542763999999998</v>
@@ -4402,21 +4420,21 @@
         <v>45.515281999999999</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D125" s="1">
         <v>20.466460000000001</v>
@@ -4425,21 +4443,21 @@
         <v>45.562559999999998</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D126" s="1">
         <v>23.774208999999999</v>
@@ -4448,21 +4466,21 @@
         <v>44.763002</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D127" s="1">
         <v>18.241785</v>
@@ -4471,21 +4489,21 @@
         <v>42.488838000000001</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D128" s="1">
         <v>27.610130000000002</v>
@@ -4494,21 +4512,21 @@
         <v>38.521644000000002</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D129" s="1">
         <v>24.540604999999999</v>
@@ -4517,21 +4535,21 @@
         <v>46.693131000000001</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D130" s="1">
         <v>25.069855</v>
@@ -4540,21 +4558,21 @@
         <v>45.464036999999998</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="C131" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="D131" s="3">
         <v>29.8874</v>
@@ -4563,21 +4581,21 @@
         <v>39.320599999999999</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="D132" s="3">
         <v>25.419733999999998</v>
@@ -4586,21 +4604,21 @@
         <v>49.676468</v>
       </c>
       <c r="F132" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G132" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D133" s="1">
         <v>29.285453</v>
@@ -4609,21 +4627,21 @@
         <v>34.944589000000001</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D134" s="1">
         <v>18.97634</v>
@@ -4632,21 +4650,21 @@
         <v>41.301167</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D135" s="1">
         <v>25.563182000000001</v>
@@ -4655,21 +4673,21 @@
         <v>47.160744999999999</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D136" s="1">
         <v>17.407972000000001</v>
@@ -4678,21 +4696,21 @@
         <v>43.074370999999999</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D137" s="1">
         <v>19.919412999999999</v>
@@ -4701,21 +4719,21 @@
         <v>40.735523999999998</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D138" s="1">
         <v>25.480855999999999</v>
@@ -4724,21 +4742,21 @@
         <v>49.622691000000003</v>
       </c>
       <c r="F138" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G138" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D139" s="1">
         <v>25.710602999999999</v>
@@ -4747,21 +4765,21 @@
         <v>45.872608</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D140" s="1">
         <v>30.589766999999998</v>
@@ -4770,21 +4788,21 @@
         <v>41.148207999999997</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D141" s="1">
         <v>25.674498</v>
@@ -4793,21 +4811,21 @@
         <v>49.551423</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D142" s="1">
         <v>22.276098999999999</v>
@@ -4816,21 +4834,21 @@
         <v>39.112707999999998</v>
       </c>
       <c r="F142" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G142" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D143" s="1">
         <v>31.665737</v>
@@ -4839,21 +4857,21 @@
         <v>38.661921999999997</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D144" s="1">
         <v>24.679561</v>
@@ -4862,21 +4880,21 @@
         <v>43.684036999999996</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D145" s="1">
         <v>19.741637000000001</v>
@@ -4885,21 +4903,21 @@
         <v>41.924492999999998</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D146" s="1">
         <v>17.664974000000001</v>
@@ -4908,21 +4926,21 @@
         <v>43.517555000000002</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D147" s="1">
         <v>24.130382000000001</v>
@@ -4931,21 +4949,21 @@
         <v>51.570081999999999</v>
       </c>
       <c r="F147" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G147" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D148" s="1">
         <v>26.516076000000002</v>
@@ -4954,21 +4972,21 @@
         <v>43.619838999999999</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D149" s="1">
         <v>19.115787999999998</v>
@@ -4977,21 +4995,21 @@
         <v>42.168045999999997</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D150" s="1">
         <v>18.793106000000002</v>
@@ -5000,21 +5018,21 @@
         <v>42.255910999999998</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D151" s="1">
         <v>16.811212999999999</v>
@@ -5023,21 +5041,21 @@
         <v>43.152147999999997</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D152" s="1">
         <v>27.889050000000001</v>
@@ -5046,21 +5064,21 @@
         <v>42.415892999999997</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D153" s="1">
         <v>27.378982000000001</v>
@@ -5069,21 +5087,21 @@
         <v>44.237861000000002</v>
       </c>
       <c r="F153" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G153" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D154" s="1">
         <v>23.624414000000002</v>
@@ -5092,21 +5110,21 @@
         <v>46.511069999999997</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D155" s="1">
         <v>27.469104999999999</v>
@@ -5115,21 +5133,21 @@
         <v>41.196739000000001</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D156" s="1">
         <v>17.981574999999999</v>
@@ -5138,21 +5156,21 @@
         <v>44.105584999999998</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D157" s="1">
         <v>17.753822</v>
@@ -5161,21 +5179,21 @@
         <v>43.154803999999999</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D158" s="1">
         <v>17.246535999999999</v>
@@ -5184,21 +5202,21 @@
         <v>43.107962000000001</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D159" s="1">
         <v>16.711358000000001</v>
@@ -5207,21 +5225,21 @@
         <v>42.956038999999997</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D160" s="1">
         <v>22.497288999999999</v>
@@ -5230,10 +5248,79 @@
         <v>40.442901999999997</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D161" s="1">
+        <v>21.263856000000001</v>
+      </c>
+      <c r="E161" s="1">
+        <v>42.853374000000002</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D162" s="1">
+        <v>17.110188999999998</v>
+      </c>
+      <c r="E162" s="1">
+        <v>42.775911000000001</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D163" s="1">
+        <v>25.014095000000001</v>
+      </c>
+      <c r="E163" s="1">
+        <v>43.817810000000001</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F7366C-24E9-4962-ADF7-5443862A70B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8AFBE1-10F6-4BF8-ADF7-960CD467A0CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="377">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -1159,6 +1159,12 @@
   </si>
   <si>
     <t>نفى</t>
+  </si>
+  <si>
+    <t>AL Sharaf</t>
+  </si>
+  <si>
+    <t>الشارف</t>
   </si>
 </sst>
 </file>
@@ -1556,11 +1562,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G163"/>
+  <dimension ref="A1:G164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G163"/>
+      <selection pane="bottomLeft" sqref="A1:G164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5323,6 +5329,29 @@
         <v>219</v>
       </c>
     </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D164" s="1">
+        <v>27.448889000000001</v>
+      </c>
+      <c r="E164" s="1">
+        <v>41.167222000000002</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G91" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8AFBE1-10F6-4BF8-ADF7-960CD467A0CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAA3615-9045-4BE8-9C67-530A375FB7FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="385">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -1165,6 +1165,30 @@
   </si>
   <si>
     <t>الشارف</t>
+  </si>
+  <si>
+    <t>Afif</t>
+  </si>
+  <si>
+    <t>عفيف</t>
+  </si>
+  <si>
+    <t>Al Uwayqilah</t>
+  </si>
+  <si>
+    <t>العويقيلة</t>
+  </si>
+  <si>
+    <t>Wadi Ibn Hashbal</t>
+  </si>
+  <si>
+    <t>وادى بن مشيل</t>
+  </si>
+  <si>
+    <t>Al Khasrah</t>
+  </si>
+  <si>
+    <t>الخاصرة</t>
   </si>
 </sst>
 </file>
@@ -1562,11 +1586,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G164"/>
+  <dimension ref="A1:G168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G164"/>
+      <selection pane="bottomLeft" sqref="A1:G168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5352,6 +5376,98 @@
         <v>221</v>
       </c>
     </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D165" s="1">
+        <v>23.905038999999999</v>
+      </c>
+      <c r="E165" s="1">
+        <v>42.912675</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D166" s="1">
+        <v>30.353563999999999</v>
+      </c>
+      <c r="E166" s="1">
+        <v>42.246017999999999</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D167" s="1">
+        <v>18.583217999999999</v>
+      </c>
+      <c r="E167" s="1">
+        <v>42.667422999999999</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D168" s="1">
+        <v>23.406562000000001</v>
+      </c>
+      <c r="E168" s="1">
+        <v>43.956432999999997</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G91" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAA3615-9045-4BE8-9C67-530A375FB7FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4292741-F027-4EC7-9137-D5E51837A54C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="387">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -1189,6 +1189,12 @@
   </si>
   <si>
     <t>الخاصرة</t>
+  </si>
+  <si>
+    <t>Tanomah</t>
+  </si>
+  <si>
+    <t>تنومة</t>
   </si>
 </sst>
 </file>
@@ -1586,11 +1592,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G168"/>
+  <dimension ref="A1:G169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G168"/>
+      <selection pane="bottomLeft" sqref="A1:G169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5468,6 +5474,29 @@
         <v>219</v>
       </c>
     </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D169" s="1">
+        <v>18.933194</v>
+      </c>
+      <c r="E169" s="1">
+        <v>42.175567000000001</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G91" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4292741-F027-4EC7-9137-D5E51837A54C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1F954D-1BD9-49EC-B0B8-D9CEC202D027}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="393">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -1195,6 +1195,24 @@
   </si>
   <si>
     <t>تنومة</t>
+  </si>
+  <si>
+    <t>Yadamah</t>
+  </si>
+  <si>
+    <t>يدمة</t>
+  </si>
+  <si>
+    <t>Al Artawiah</t>
+  </si>
+  <si>
+    <t>الأرطاية</t>
+  </si>
+  <si>
+    <t>AL Bejadiah</t>
+  </si>
+  <si>
+    <t>البجادية</t>
   </si>
 </sst>
 </file>
@@ -1592,11 +1610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G169"/>
+  <dimension ref="A1:G172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G169"/>
+      <selection pane="bottomLeft" sqref="A1:G172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5497,6 +5515,75 @@
         <v>224</v>
       </c>
     </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D170" s="1">
+        <v>18.532356</v>
+      </c>
+      <c r="E170" s="1">
+        <v>44.228935</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D171" s="1">
+        <v>26.501619999999999</v>
+      </c>
+      <c r="E171" s="1">
+        <v>45.345531999999999</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D172" s="1">
+        <v>23.61806</v>
+      </c>
+      <c r="E172" s="1">
+        <v>45.388869</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G91" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1F954D-1BD9-49EC-B0B8-D9CEC202D027}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9DE107-4253-4194-A2F0-309BC39CD44F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="397">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -1213,6 +1213,18 @@
   </si>
   <si>
     <t>البجادية</t>
+  </si>
+  <si>
+    <t>Abu Orwah</t>
+  </si>
+  <si>
+    <t>ابو عروة</t>
+  </si>
+  <si>
+    <t>Al Harajah</t>
+  </si>
+  <si>
+    <t>الحرجة</t>
   </si>
 </sst>
 </file>
@@ -1610,11 +1622,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G172"/>
+  <dimension ref="A1:G174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G172"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:G174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5584,6 +5596,52 @@
         <v>219</v>
       </c>
     </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D173" s="1">
+        <v>21.645588</v>
+      </c>
+      <c r="E173" s="1">
+        <v>39.701957</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D174" s="1">
+        <v>17.920961999999999</v>
+      </c>
+      <c r="E174" s="1">
+        <v>43.374065999999999</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G91" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9DE107-4253-4194-A2F0-309BC39CD44F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49055FD9-D3F4-4A57-8839-16B35EDB82C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="401">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -1182,9 +1182,6 @@
     <t>Wadi Ibn Hashbal</t>
   </si>
   <si>
-    <t>وادى بن مشيل</t>
-  </si>
-  <si>
     <t>Al Khasrah</t>
   </si>
   <si>
@@ -1225,6 +1222,21 @@
   </si>
   <si>
     <t>الحرجة</t>
+  </si>
+  <si>
+    <t>وادى بن هشبل</t>
+  </si>
+  <si>
+    <t>Hubuna</t>
+  </si>
+  <si>
+    <t>حبونا</t>
+  </si>
+  <si>
+    <t>Tabalah</t>
+  </si>
+  <si>
+    <t>تبالة</t>
   </si>
 </sst>
 </file>
@@ -1622,11 +1634,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G174"/>
+  <dimension ref="A1:G176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G174"/>
+      <selection pane="bottomLeft" sqref="A1:G176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5466,7 +5478,7 @@
         <v>381</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="D167" s="1">
         <v>18.583217999999999</v>
@@ -5483,13 +5495,13 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="D168" s="1">
         <v>23.406562000000001</v>
@@ -5506,13 +5518,13 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="D169" s="1">
         <v>18.933194</v>
@@ -5529,13 +5541,13 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="D170" s="1">
         <v>18.532356</v>
@@ -5552,13 +5564,13 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="D171" s="1">
         <v>26.501619999999999</v>
@@ -5575,13 +5587,13 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="D172" s="1">
         <v>23.61806</v>
@@ -5598,13 +5610,13 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="D173" s="1">
         <v>21.645588</v>
@@ -5621,13 +5633,13 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="D174" s="1">
         <v>17.920961999999999</v>
@@ -5639,6 +5651,52 @@
         <v>225</v>
       </c>
       <c r="G174" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D175" s="1">
+        <v>17.839884999999999</v>
+      </c>
+      <c r="E175" s="1">
+        <v>44.023803999999998</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D176" s="1">
+        <v>19.996976</v>
+      </c>
+      <c r="E176" s="1">
+        <v>42.226551999999998</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G176" s="1" t="s">
         <v>224</v>
       </c>
     </row>

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49055FD9-D3F4-4A57-8839-16B35EDB82C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32155FE-B3E4-4769-A7CA-11AB8294A34D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="407">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -1203,9 +1203,6 @@
     <t>Al Artawiah</t>
   </si>
   <si>
-    <t>الأرطاية</t>
-  </si>
-  <si>
     <t>AL Bejadiah</t>
   </si>
   <si>
@@ -1237,6 +1234,27 @@
   </si>
   <si>
     <t>تبالة</t>
+  </si>
+  <si>
+    <t>الأرطاوية</t>
+  </si>
+  <si>
+    <t>Khbash</t>
+  </si>
+  <si>
+    <t>خباش</t>
+  </si>
+  <si>
+    <t>Qusaiba</t>
+  </si>
+  <si>
+    <t>قصيباء</t>
+  </si>
+  <si>
+    <t>Al Hmanah</t>
+  </si>
+  <si>
+    <t>الحمنة</t>
   </si>
 </sst>
 </file>
@@ -1634,11 +1652,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G176"/>
+  <dimension ref="A1:G179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G176"/>
+      <selection pane="bottomLeft" sqref="A1:G179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5478,7 +5496,7 @@
         <v>381</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D167" s="1">
         <v>18.583217999999999</v>
@@ -5569,8 +5587,8 @@
       <c r="B171" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C171" s="1" t="s">
-        <v>389</v>
+      <c r="C171" t="s">
+        <v>400</v>
       </c>
       <c r="D171" s="1">
         <v>26.501619999999999</v>
@@ -5587,13 +5605,13 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="D172" s="1">
         <v>23.61806</v>
@@ -5610,13 +5628,13 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="D173" s="1">
         <v>21.645588</v>
@@ -5633,13 +5651,13 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="D174" s="1">
         <v>17.920961999999999</v>
@@ -5656,13 +5674,13 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="D175" s="1">
         <v>17.839884999999999</v>
@@ -5679,13 +5697,13 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="D176" s="1">
         <v>19.996976</v>
@@ -5698,6 +5716,75 @@
       </c>
       <c r="G176" s="1" t="s">
         <v>224</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D177" s="1">
+        <v>17.557409</v>
+      </c>
+      <c r="E177" s="1">
+        <v>44.750014999999998</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D178" s="1">
+        <v>26.885753999999999</v>
+      </c>
+      <c r="E178" s="1">
+        <v>43.634118999999998</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D179" s="1">
+        <v>23.008141999999999</v>
+      </c>
+      <c r="E179" s="1">
+        <v>39.883386000000002</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32155FE-B3E4-4769-A7CA-11AB8294A34D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407A8BCA-EDAF-4F3E-A1C9-E4F45A3C3EEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="409">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -1255,6 +1255,12 @@
   </si>
   <si>
     <t>الحمنة</t>
+  </si>
+  <si>
+    <t>Al Qahma</t>
+  </si>
+  <si>
+    <t>القحمة</t>
   </si>
 </sst>
 </file>
@@ -1652,11 +1658,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G179"/>
+  <dimension ref="A1:G180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G179"/>
+      <selection pane="bottomLeft" sqref="A1:G180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5787,6 +5793,29 @@
         <v>220</v>
       </c>
     </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D180" s="1">
+        <v>18.004648</v>
+      </c>
+      <c r="E180" s="1">
+        <v>41.672387000000001</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G91" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407A8BCA-EDAF-4F3E-A1C9-E4F45A3C3EEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E55D91-6A73-4991-B90D-5F91A35603AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -1251,16 +1251,16 @@
     <t>قصيباء</t>
   </si>
   <si>
-    <t>Al Hmanah</t>
-  </si>
-  <si>
-    <t>الحمنة</t>
-  </si>
-  <si>
-    <t>Al Qahma</t>
-  </si>
-  <si>
-    <t>القحمة</t>
+    <t>Urayarah</t>
+  </si>
+  <si>
+    <t>عريعرة</t>
+  </si>
+  <si>
+    <t>Al Mossam</t>
+  </si>
+  <si>
+    <t>الموسم</t>
   </si>
 </sst>
 </file>
@@ -5781,16 +5781,16 @@
         <v>406</v>
       </c>
       <c r="D179" s="1">
-        <v>23.008141999999999</v>
+        <v>25.980965999999999</v>
       </c>
       <c r="E179" s="1">
-        <v>39.883386000000002</v>
+        <v>48.849434000000002</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -5804,13 +5804,13 @@
         <v>408</v>
       </c>
       <c r="D180" s="1">
-        <v>18.004648</v>
+        <v>16.418261999999999</v>
       </c>
       <c r="E180" s="1">
-        <v>41.672387000000001</v>
+        <v>42.824491999999999</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>224</v>

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E55D91-6A73-4991-B90D-5F91A35603AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBADB71-2A8C-4794-B8B9-0B7FFAA05615}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="417">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -939,9 +939,6 @@
     <t>Rowaidat Alard</t>
   </si>
   <si>
-    <t>رويضة العرض</t>
-  </si>
-  <si>
     <t>Al Gara</t>
   </si>
   <si>
@@ -1261,6 +1258,33 @@
   </si>
   <si>
     <t>الموسم</t>
+  </si>
+  <si>
+    <t>رويضة العرض (الرويضة)</t>
+  </si>
+  <si>
+    <t>Al Hmanah</t>
+  </si>
+  <si>
+    <t>الحمنة</t>
+  </si>
+  <si>
+    <t>Al Qahma</t>
+  </si>
+  <si>
+    <t>القحمة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farasan </t>
+  </si>
+  <si>
+    <t>فرسان</t>
+  </si>
+  <si>
+    <t>Al Reeth</t>
+  </si>
+  <si>
+    <t>الريث</t>
   </si>
 </sst>
 </file>
@@ -1658,11 +1682,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G180"/>
+  <dimension ref="A1:G184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G180"/>
+      <selection pane="bottomLeft" sqref="A1:G184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2673,7 +2697,7 @@
         <v>119</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D44" s="1">
         <v>27.345700000000001</v>
@@ -3754,7 +3778,7 @@
         <v>229</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D91" s="1">
         <v>20.435752999999998</v>
@@ -3862,25 +3886,25 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96" s="3">
         <v>24.631665999999999</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E96" s="3">
         <v>46.709612999999997</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F96" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="G96" s="3" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4352,7 +4376,7 @@
         <v>283</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D117" s="1">
         <v>35.717683999999998</v>
@@ -4559,7 +4583,7 @@
         <v>300</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>301</v>
+        <v>408</v>
       </c>
       <c r="D126" s="1">
         <v>23.774208999999999</v>
@@ -4576,13 +4600,13 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="D127" s="1">
         <v>18.241785</v>
@@ -4599,13 +4623,13 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="D128" s="1">
         <v>27.610130000000002</v>
@@ -4622,13 +4646,13 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="D129" s="1">
         <v>24.540604999999999</v>
@@ -4645,13 +4669,13 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="D130" s="1">
         <v>25.069855</v>
@@ -4714,13 +4738,13 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="D133" s="1">
         <v>29.285453</v>
@@ -4737,13 +4761,13 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="D134" s="1">
         <v>18.97634</v>
@@ -4760,13 +4784,13 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="D135" s="1">
         <v>25.563182000000001</v>
@@ -4783,13 +4807,13 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="D136" s="1">
         <v>17.407972000000001</v>
@@ -4806,13 +4830,13 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="D137" s="1">
         <v>19.919412999999999</v>
@@ -4829,13 +4853,13 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="D138" s="1">
         <v>25.480855999999999</v>
@@ -4852,13 +4876,13 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="D139" s="1">
         <v>25.710602999999999</v>
@@ -4875,13 +4899,13 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="D140" s="1">
         <v>30.589766999999998</v>
@@ -4898,13 +4922,13 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="D141" s="1">
         <v>25.674498</v>
@@ -4921,13 +4945,13 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="D142" s="1">
         <v>22.276098999999999</v>
@@ -4944,13 +4968,13 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="D143" s="1">
         <v>31.665737</v>
@@ -4967,13 +4991,13 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="D144" s="1">
         <v>24.679561</v>
@@ -4990,13 +5014,13 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="D145" s="1">
         <v>19.741637000000001</v>
@@ -5013,13 +5037,13 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="D146" s="1">
         <v>17.664974000000001</v>
@@ -5036,13 +5060,13 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="D147" s="1">
         <v>24.130382000000001</v>
@@ -5059,13 +5083,13 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="D148" s="1">
         <v>26.516076000000002</v>
@@ -5082,13 +5106,13 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="D149" s="1">
         <v>19.115787999999998</v>
@@ -5105,13 +5129,13 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="D150" s="1">
         <v>18.793106000000002</v>
@@ -5128,13 +5152,13 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="D151" s="1">
         <v>16.811212999999999</v>
@@ -5151,13 +5175,13 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="D152" s="1">
         <v>27.889050000000001</v>
@@ -5174,13 +5198,13 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="D153" s="1">
         <v>27.378982000000001</v>
@@ -5197,13 +5221,13 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="D154" s="1">
         <v>23.624414000000002</v>
@@ -5220,13 +5244,13 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="D155" s="1">
         <v>27.469104999999999</v>
@@ -5243,13 +5267,13 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="D156" s="1">
         <v>17.981574999999999</v>
@@ -5266,13 +5290,13 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="D157" s="1">
         <v>17.753822</v>
@@ -5289,13 +5313,13 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="D158" s="1">
         <v>17.246535999999999</v>
@@ -5312,13 +5336,13 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="D159" s="1">
         <v>16.711358000000001</v>
@@ -5335,13 +5359,13 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="D160" s="1">
         <v>22.497288999999999</v>
@@ -5358,13 +5382,13 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="D161" s="1">
         <v>21.263856000000001</v>
@@ -5381,13 +5405,13 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="D162" s="1">
         <v>17.110188999999998</v>
@@ -5404,13 +5428,13 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="D163" s="1">
         <v>25.014095000000001</v>
@@ -5426,37 +5450,37 @@
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D164" s="1">
+      <c r="D164" s="3">
         <v>27.448889000000001</v>
       </c>
-      <c r="E164" s="1">
+      <c r="E164" s="3">
         <v>41.167222000000002</v>
       </c>
-      <c r="F164" s="1" t="s">
+      <c r="F164" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="G164" s="1" t="s">
+      <c r="G164" s="3" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="D165" s="1">
         <v>23.905038999999999</v>
@@ -5473,13 +5497,13 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="D166" s="1">
         <v>30.353563999999999</v>
@@ -5496,13 +5520,13 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D167" s="1">
         <v>18.583217999999999</v>
@@ -5519,13 +5543,13 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="D168" s="1">
         <v>23.406562000000001</v>
@@ -5542,13 +5566,13 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="D169" s="1">
         <v>18.933194</v>
@@ -5565,13 +5589,13 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="D170" s="1">
         <v>18.532356</v>
@@ -5588,13 +5612,13 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C171" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D171" s="1">
         <v>26.501619999999999</v>
@@ -5611,13 +5635,13 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="D172" s="1">
         <v>23.61806</v>
@@ -5634,13 +5658,13 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="D173" s="1">
         <v>21.645588</v>
@@ -5657,13 +5681,13 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="D174" s="1">
         <v>17.920961999999999</v>
@@ -5680,13 +5704,13 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="D175" s="1">
         <v>17.839884999999999</v>
@@ -5703,13 +5727,13 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="D176" s="1">
         <v>19.996976</v>
@@ -5726,13 +5750,13 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="D177" s="1">
         <v>17.557409</v>
@@ -5749,13 +5773,13 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="D178" s="1">
         <v>26.885753999999999</v>
@@ -5772,47 +5796,139 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D179" s="1">
-        <v>25.980965999999999</v>
+        <v>23.007313</v>
       </c>
       <c r="E179" s="1">
-        <v>48.849434000000002</v>
+        <v>39.884672999999999</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D180" s="1">
+        <v>18.005056</v>
+      </c>
+      <c r="E180" s="1">
+        <v>41.670670000000001</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D181" s="1">
+        <v>25.980965999999999</v>
+      </c>
+      <c r="E181" s="1">
+        <v>48.849434000000002</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B180" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="D180" s="1">
+      <c r="D182" s="1">
         <v>16.418261999999999</v>
       </c>
-      <c r="E180" s="1">
+      <c r="E182" s="1">
         <v>42.824491999999999</v>
       </c>
-      <c r="F180" s="1" t="s">
+      <c r="F182" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G180" s="1" t="s">
+      <c r="G182" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D183" s="1">
+        <v>16.706448999999999</v>
+      </c>
+      <c r="E183" s="1">
+        <v>41.983161000000003</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D184" s="1">
+        <v>17.616883999999999</v>
+      </c>
+      <c r="E184" s="1">
+        <v>42.830247</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G184" s="1" t="s">
         <v>224</v>
       </c>
     </row>

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBADB71-2A8C-4794-B8B9-0B7FFAA05615}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F88FE7-F9DF-4183-9F23-20315D6051B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="425">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -1285,6 +1285,30 @@
   </si>
   <si>
     <t>الريث</t>
+  </si>
+  <si>
+    <t>Ash Shinan</t>
+  </si>
+  <si>
+    <t>الشنان</t>
+  </si>
+  <si>
+    <t>Badr Al Janoub</t>
+  </si>
+  <si>
+    <t>بدر الجنوب</t>
+  </si>
+  <si>
+    <t>An Nabhaniyah</t>
+  </si>
+  <si>
+    <t>النبهانية</t>
+  </si>
+  <si>
+    <t>Dariyah</t>
+  </si>
+  <si>
+    <t>ضرية</t>
   </si>
 </sst>
 </file>
@@ -1682,11 +1706,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G184"/>
+  <dimension ref="A1:G188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G184"/>
+      <selection pane="bottomLeft" sqref="A1:G188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5932,6 +5956,98 @@
         <v>224</v>
       </c>
     </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D185" s="1">
+        <v>27.176233</v>
+      </c>
+      <c r="E185" s="1">
+        <v>42.443098999999997</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D186" s="1">
+        <v>17.879346999999999</v>
+      </c>
+      <c r="E186" s="1">
+        <v>43.719791999999998</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D187" s="1">
+        <v>25.85782</v>
+      </c>
+      <c r="E187" s="1">
+        <v>43.067594999999997</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D188" s="1">
+        <v>24.722766</v>
+      </c>
+      <c r="E188" s="1">
+        <v>42.932467000000003</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G91" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F88FE7-F9DF-4183-9F23-20315D6051B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF925C5-8C37-444E-B4A9-C3840793CEDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="429">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -1309,6 +1309,18 @@
   </si>
   <si>
     <t>ضرية</t>
+  </si>
+  <si>
+    <t>Al Quwarah</t>
+  </si>
+  <si>
+    <t>القوارة</t>
+  </si>
+  <si>
+    <t>Meegowa</t>
+  </si>
+  <si>
+    <t>ميقوع</t>
   </si>
 </sst>
 </file>
@@ -1706,11 +1718,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G188"/>
+  <dimension ref="A1:G190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G188"/>
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:G190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6048,6 +6060,52 @@
         <v>219</v>
       </c>
     </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D189" s="1">
+        <v>26.770962999999998</v>
+      </c>
+      <c r="E189" s="1">
+        <v>43.473886999999998</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D190" s="1">
+        <v>29.814852999999999</v>
+      </c>
+      <c r="E190" s="1">
+        <v>38.918719000000003</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G91" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF925C5-8C37-444E-B4A9-C3840793CEDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021F77F3-E925-47B5-B203-3238A78A3CE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="449">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -321,9 +321,6 @@
     <t>Al Muwayh</t>
   </si>
   <si>
-    <t>الموية</t>
-  </si>
-  <si>
     <t>Al Wajh</t>
   </si>
   <si>
@@ -336,18 +333,12 @@
     <t>Sabt Al Alaya</t>
   </si>
   <si>
-    <t>سبت العلايه</t>
-  </si>
-  <si>
     <t>Mahayel</t>
   </si>
   <si>
     <t>Mhayel, 'Asir</t>
   </si>
   <si>
-    <t>محايل عسير</t>
-  </si>
-  <si>
     <t>Ar Ras</t>
   </si>
   <si>
@@ -597,9 +588,6 @@
     <t>Hottah Bani Tamem</t>
   </si>
   <si>
-    <t>حوطة بنى تمبم</t>
-  </si>
-  <si>
     <t>Hottah Sudair</t>
   </si>
   <si>
@@ -609,9 +597,6 @@
     <t>Rafha</t>
   </si>
   <si>
-    <t>رفحاء</t>
-  </si>
-  <si>
     <t>Riyadh Al Khabra</t>
   </si>
   <si>
@@ -651,15 +636,9 @@
     <t>Turbah</t>
   </si>
   <si>
-    <t>تربه</t>
-  </si>
-  <si>
     <t>Bin Malik</t>
   </si>
   <si>
-    <t>بني مالك</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
@@ -780,9 +759,6 @@
     <t>Qaryat Al Ulya</t>
   </si>
   <si>
-    <t>القرية العليا</t>
-  </si>
-  <si>
     <t>Salwa</t>
   </si>
   <si>
@@ -798,15 +774,9 @@
     <t>Al Edabi</t>
   </si>
   <si>
-    <t>العيدابى</t>
-  </si>
-  <si>
     <t>Dhurma</t>
   </si>
   <si>
-    <t>ضرماء</t>
-  </si>
-  <si>
     <t>Layla</t>
   </si>
   <si>
@@ -828,15 +798,9 @@
     <t>AL Ghazalah</t>
   </si>
   <si>
-    <t>الغزالة</t>
-  </si>
-  <si>
     <t>Hadban</t>
   </si>
   <si>
-    <t>هدبان</t>
-  </si>
-  <si>
     <t>Addayer</t>
   </si>
   <si>
@@ -891,9 +855,6 @@
     <t>Manfath Al Hadithah</t>
   </si>
   <si>
-    <t>منفذ الحديثة</t>
-  </si>
-  <si>
     <t>Qulwah</t>
   </si>
   <si>
@@ -1032,9 +993,6 @@
     <t>Al Rafaia</t>
   </si>
   <si>
-    <t>الرفيعة (رفائع الجمش)</t>
-  </si>
-  <si>
     <t>Al Bashayer</t>
   </si>
   <si>
@@ -1050,9 +1008,6 @@
     <t>Al Bathaa</t>
   </si>
   <si>
-    <t>البطحاء</t>
-  </si>
-  <si>
     <t>Oyoun Al Jawa</t>
   </si>
   <si>
@@ -1113,15 +1068,9 @@
     <t>الفرشة</t>
   </si>
   <si>
-    <t>وادى الدواسر</t>
-  </si>
-  <si>
     <t>Fayfa</t>
   </si>
   <si>
-    <t>فيفاء</t>
-  </si>
-  <si>
     <t>Ahad Al Masarhah</t>
   </si>
   <si>
@@ -1131,12 +1080,6 @@
     <t>Al Mahani</t>
   </si>
   <si>
-    <t>المحانى</t>
-  </si>
-  <si>
-    <t>ضباء</t>
-  </si>
-  <si>
     <t>السحن</t>
   </si>
   <si>
@@ -1155,9 +1098,6 @@
     <t>Nafy</t>
   </si>
   <si>
-    <t>نفى</t>
-  </si>
-  <si>
     <t>AL Sharaf</t>
   </si>
   <si>
@@ -1218,9 +1158,6 @@
     <t>الحرجة</t>
   </si>
   <si>
-    <t>وادى بن هشبل</t>
-  </si>
-  <si>
     <t>Hubuna</t>
   </si>
   <si>
@@ -1260,9 +1197,6 @@
     <t>الموسم</t>
   </si>
   <si>
-    <t>رويضة العرض (الرويضة)</t>
-  </si>
-  <si>
     <t>Al Hmanah</t>
   </si>
   <si>
@@ -1321,13 +1255,139 @@
   </si>
   <si>
     <t>ميقوع</t>
+  </si>
+  <si>
+    <t>رفحا</t>
+  </si>
+  <si>
+    <t>حوطة بني تميم</t>
+  </si>
+  <si>
+    <t>ضبا</t>
+  </si>
+  <si>
+    <t>محايل</t>
+  </si>
+  <si>
+    <t>المويه</t>
+  </si>
+  <si>
+    <t>تربة</t>
+  </si>
+  <si>
+    <t>سبت العلاية</t>
+  </si>
+  <si>
+    <t>حداد بني مالك</t>
+  </si>
+  <si>
+    <t>وادي الدواسر</t>
+  </si>
+  <si>
+    <t>قرية العليا</t>
+  </si>
+  <si>
+    <t>العيدابي</t>
+  </si>
+  <si>
+    <t>ضرما</t>
+  </si>
+  <si>
+    <t>الغزاله</t>
+  </si>
+  <si>
+    <t>الحدبان</t>
+  </si>
+  <si>
+    <t>مركز حدود الحديثة</t>
+  </si>
+  <si>
+    <t>الرويضة</t>
+  </si>
+  <si>
+    <t>رفائع الجمش</t>
+  </si>
+  <si>
+    <t>بطحاء</t>
+  </si>
+  <si>
+    <t>فيفا</t>
+  </si>
+  <si>
+    <t>المحاني</t>
+  </si>
+  <si>
+    <t>نفي</t>
+  </si>
+  <si>
+    <t>وادي بن هشبل</t>
+  </si>
+  <si>
+    <t>Al Hait</t>
+  </si>
+  <si>
+    <t>الحائط</t>
+  </si>
+  <si>
+    <t>Al Bada</t>
+  </si>
+  <si>
+    <t>البدع</t>
+  </si>
+  <si>
+    <t>Bariq</t>
+  </si>
+  <si>
+    <t>بارق</t>
+  </si>
+  <si>
+    <t>Haradh</t>
+  </si>
+  <si>
+    <t>حرض</t>
+  </si>
+  <si>
+    <t>Al Qaisumah</t>
+  </si>
+  <si>
+    <t>القيصومة</t>
+  </si>
+  <si>
+    <t>Samudah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سامودة </t>
+  </si>
+  <si>
+    <t>Qaryat</t>
+  </si>
+  <si>
+    <t>قرية</t>
+  </si>
+  <si>
+    <t>As Suairah</t>
+  </si>
+  <si>
+    <t>السعيرة</t>
+  </si>
+  <si>
+    <t>Badr</t>
+  </si>
+  <si>
+    <t>بدر</t>
+  </si>
+  <si>
+    <t>Tabuk Principal</t>
+  </si>
+  <si>
+    <t>تبوك (مقرالامارة)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1349,6 +1409,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1398,11 +1464,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1718,11 +1785,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G190"/>
+  <dimension ref="A1:G200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G190"/>
+      <selection pane="bottomLeft" sqref="A1:G200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1744,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1753,10 +1820,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1776,10 +1843,10 @@
         <v>50.088799999999999</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1799,10 +1866,10 @@
         <v>49.998199999999997</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1822,10 +1889,10 @@
         <v>49.5687</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1845,10 +1912,10 @@
         <v>50.197099999999999</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1868,10 +1935,10 @@
         <v>49.998199999999997</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1891,10 +1958,10 @@
         <v>48.488700000000001</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1914,21 +1981,21 @@
         <v>45.942</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D9" s="1">
         <v>25.916799999999999</v>
@@ -1937,10 +2004,10 @@
         <v>49.670699999999997</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1960,10 +2027,10 @@
         <v>41.471299999999999</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1983,21 +2050,21 @@
         <v>41.320999999999998</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D12" s="1">
         <v>20.435099999999998</v>
@@ -2006,21 +2073,21 @@
         <v>41.680999999999997</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D13" s="1">
         <v>20.1083</v>
@@ -2029,21 +2096,21 @@
         <v>41.285899999999998</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D14" s="1">
         <v>19.864899999999999</v>
@@ -2052,10 +2119,10 @@
         <v>41.581200000000003</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2075,10 +2142,10 @@
         <v>37.361400000000003</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2098,21 +2165,21 @@
         <v>40.104300000000002</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D17" s="1">
         <v>30.515499999999999</v>
@@ -2121,10 +2188,10 @@
         <v>38.221600000000002</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2144,21 +2211,21 @@
         <v>41.059600000000003</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>407</v>
       </c>
       <c r="D19" s="1">
         <v>29.627300000000002</v>
@@ -2167,10 +2234,10 @@
         <v>43.519300000000001</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2190,10 +2257,10 @@
         <v>46.6753</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2213,10 +2280,10 @@
         <v>42.590200000000003</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2236,10 +2303,10 @@
         <v>44.831800000000001</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2259,10 +2326,10 @@
         <v>47.324800000000003</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2282,21 +2349,21 @@
         <v>46.536299999999997</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D25" s="1">
         <v>24.0671</v>
@@ -2305,21 +2372,21 @@
         <v>45.2806</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D26" s="1">
         <v>25.875900000000001</v>
@@ -2328,21 +2395,21 @@
         <v>45.373100000000001</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D27" s="1">
         <v>24.5167</v>
@@ -2351,21 +2418,21 @@
         <v>44.418199999999999</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D28" s="1">
         <v>24.471399999999999</v>
@@ -2374,21 +2441,21 @@
         <v>46.273200000000003</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>408</v>
       </c>
       <c r="D29" s="1">
         <v>23.525065000000001</v>
@@ -2397,21 +2464,21 @@
         <v>46.845830999999997</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D30" s="1">
         <v>25.355699999999999</v>
@@ -2420,10 +2487,10 @@
         <v>45.378700000000002</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2443,10 +2510,10 @@
         <v>43.9818</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2466,10 +2533,10 @@
         <v>43.987499999999997</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2489,21 +2556,21 @@
         <v>43.656700000000001</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D34" s="1">
         <v>25.851700000000001</v>
@@ -2512,21 +2579,21 @@
         <v>43.522199999999998</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D35" s="1">
         <v>25.981200000000001</v>
@@ -2535,21 +2602,21 @@
         <v>43.733400000000003</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D36" s="1">
         <v>25.8569</v>
@@ -2558,21 +2625,21 @@
         <v>44.224200000000003</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D37" s="1">
         <v>26.052992</v>
@@ -2581,21 +2648,21 @@
         <v>43.543151999999999</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D38" s="1">
         <v>25.831567</v>
@@ -2604,10 +2671,10 @@
         <v>42.188487000000002</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2627,21 +2694,21 @@
         <v>39.569200000000002</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D40" s="1">
         <v>25.059899999999999</v>
@@ -2650,21 +2717,21 @@
         <v>38.116</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D41" s="1">
         <v>23.309830000000002</v>
@@ -2673,10 +2740,10 @@
         <v>39.779082000000002</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2696,21 +2763,21 @@
         <v>36.566200000000002</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="D43" s="1">
         <v>26.236599999999999</v>
@@ -2719,21 +2786,21 @@
         <v>36.468899999999998</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>366</v>
+        <v>116</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>409</v>
       </c>
       <c r="D44" s="1">
         <v>27.345700000000001</v>
@@ -2742,10 +2809,10 @@
         <v>35.724299999999999</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2765,10 +2832,10 @@
         <v>42.570599999999999</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2788,10 +2855,10 @@
         <v>42.536299999999997</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2811,21 +2878,21 @@
         <v>42.935400000000001</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D48" s="1">
         <v>16.527899999999999</v>
@@ -2834,21 +2901,21 @@
         <v>42.973300000000002</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D49" s="1">
         <v>17.154800000000002</v>
@@ -2857,21 +2924,21 @@
         <v>42.626899999999999</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D50" s="1">
         <v>17.0379</v>
@@ -2880,10 +2947,10 @@
         <v>43.0486</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2903,21 +2970,21 @@
         <v>41.720799999999997</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D52" s="1">
         <v>26.857800000000001</v>
@@ -2926,10 +2993,10 @@
         <v>40.329300000000003</v>
       </c>
       <c r="F52" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2949,10 +3016,10 @@
         <v>42.766199999999998</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2972,21 +3039,21 @@
         <v>42.511699999999998</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>410</v>
       </c>
       <c r="D55" s="1">
         <v>18.5474</v>
@@ -2995,21 +3062,21 @@
         <v>42.053400000000003</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D56" s="1">
         <v>18.1952</v>
@@ -3018,10 +3085,10 @@
         <v>42.820500000000003</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3041,10 +3108,10 @@
         <v>39.857900000000001</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3064,10 +3131,10 @@
         <v>39.192500000000003</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3087,10 +3154,10 @@
         <v>40.424799999999998</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3110,10 +3177,10 @@
         <v>39.3414</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3133,10 +3200,10 @@
         <v>41.078699999999998</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3156,10 +3223,10 @@
         <v>39.018999999999998</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3169,8 +3236,8 @@
       <c r="B63" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>95</v>
+      <c r="C63" s="4" t="s">
+        <v>411</v>
       </c>
       <c r="D63" s="1">
         <v>22.741800000000001</v>
@@ -3179,21 +3246,21 @@
         <v>41.589700000000001</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D64" s="1">
         <v>20.140499999999999</v>
@@ -3202,21 +3269,21 @@
         <v>40.278199999999998</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D65" s="1">
         <v>20.727</v>
@@ -3225,21 +3292,21 @@
         <v>40.829799999999999</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D66" s="1">
         <v>21.924600000000002</v>
@@ -3248,21 +3315,21 @@
         <v>42.028700000000001</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D67" s="1">
         <v>20.422499999999999</v>
@@ -3271,21 +3338,21 @@
         <v>40.862699999999997</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>412</v>
       </c>
       <c r="D68" s="1">
         <v>21.208628000000001</v>
@@ -3294,10 +3361,10 @@
         <v>41.621616000000003</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3317,10 +3384,10 @@
         <v>44.228900000000003</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -3340,10 +3407,10 @@
         <v>47.116700000000002</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3363,10 +3430,10 @@
         <v>49.588799999999999</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3386,10 +3453,10 @@
         <v>50.039299999999997</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3409,10 +3476,10 @@
         <v>38.19</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3432,10 +3499,10 @@
         <v>40.280299999999997</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3455,21 +3522,21 @@
         <v>41.8352</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>100</v>
+      <c r="C76" s="4" t="s">
+        <v>413</v>
       </c>
       <c r="D76" s="1">
         <v>19.5718</v>
@@ -3478,21 +3545,21 @@
         <v>41.969200000000001</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D77" s="1">
         <v>21.450243</v>
@@ -3501,21 +3568,21 @@
         <v>39.538119000000002</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D78" s="1">
         <v>25.1859</v>
@@ -3524,21 +3591,21 @@
         <v>44.601999999999997</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D79" s="1">
         <v>24.402442000000001</v>
@@ -3547,21 +3614,21 @@
         <v>39.153792000000003</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D80" s="1">
         <v>24.630700000000001</v>
@@ -3570,21 +3637,21 @@
         <v>40.9587</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D81" s="1">
         <v>20.462800000000001</v>
@@ -3593,21 +3660,21 @@
         <v>41.072200000000002</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D82" s="1">
         <v>19.539000000000001</v>
@@ -3616,21 +3683,21 @@
         <v>41.049500000000002</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D83" s="1">
         <v>23.500699999999998</v>
@@ -3639,21 +3706,21 @@
         <v>40.864199999999997</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D84" s="1">
         <v>25.405100000000001</v>
@@ -3662,21 +3729,21 @@
         <v>49.548400000000001</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D85" s="1">
         <v>26.488900000000001</v>
@@ -3685,21 +3752,21 @@
         <v>50.028199999999998</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D86" s="1">
         <v>26.5503</v>
@@ -3708,21 +3775,21 @@
         <v>37.9679</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D87" s="1">
         <v>18.8401</v>
@@ -3731,21 +3798,21 @@
         <v>43.247300000000003</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D88" s="1">
         <v>27.470400000000001</v>
@@ -3754,21 +3821,21 @@
         <v>48.485500000000002</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D89" s="1">
         <v>22.621200000000002</v>
@@ -3777,21 +3844,21 @@
         <v>41.351100000000002</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>414</v>
       </c>
       <c r="D90" s="1">
         <v>20.595102499999999</v>
@@ -3800,21 +3867,21 @@
         <v>41.052004099999998</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>359</v>
+        <v>222</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>415</v>
       </c>
       <c r="D91" s="1">
         <v>20.435752999999998</v>
@@ -3823,21 +3890,21 @@
         <v>44.863304999999997</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D92" s="1">
         <v>19.127485</v>
@@ -3846,21 +3913,21 @@
         <v>41.923763000000001</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D93" s="1">
         <v>16.968204</v>
@@ -3869,21 +3936,21 @@
         <v>42.843758999999999</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D94" s="1">
         <v>29.811488000000001</v>
@@ -3892,21 +3959,21 @@
         <v>39.887321</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D95" s="1">
         <v>22.723503999999998</v>
@@ -3915,21 +3982,21 @@
         <v>42.172265000000003</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D96" s="3">
         <v>24.631665999999999</v>
@@ -3938,21 +4005,21 @@
         <v>46.709612999999997</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D97" s="1">
         <v>25.049199999999999</v>
@@ -3961,21 +4028,21 @@
         <v>37.265538999999997</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D98" s="1">
         <v>17.734352999999999</v>
@@ -3984,21 +4051,21 @@
         <v>42.264575000000001</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D99" s="1">
         <v>26.661256999999999</v>
@@ -4007,21 +4074,21 @@
         <v>49.926113999999998</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>416</v>
       </c>
       <c r="D100" s="1">
         <v>27.557566000000001</v>
@@ -4030,21 +4097,21 @@
         <v>47.701819</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D101" s="1">
         <v>24.741019999999999</v>
@@ -4053,21 +4120,21 @@
         <v>50.756706999999999</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D102" s="1">
         <v>25.686066</v>
@@ -4076,21 +4143,21 @@
         <v>39.292119999999997</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>254</v>
+        <v>245</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>417</v>
       </c>
       <c r="D103" s="1">
         <v>17.237791999999999</v>
@@ -4099,21 +4166,21 @@
         <v>42.939901999999996</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>418</v>
       </c>
       <c r="D104" s="1">
         <v>24.613032</v>
@@ -4122,21 +4189,21 @@
         <v>46.152875000000002</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D105" s="1">
         <v>22.290050000000001</v>
@@ -4145,21 +4212,21 @@
         <v>46.719341</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D106" s="1">
         <v>21.05489</v>
@@ -4168,21 +4235,21 @@
         <v>40.988163999999998</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D107" s="1">
         <v>22.284344999999998</v>
@@ -4191,21 +4258,21 @@
         <v>39.799393000000002</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>264</v>
+        <v>253</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>419</v>
       </c>
       <c r="D108" s="1">
         <v>26.788481000000001</v>
@@ -4214,21 +4281,21 @@
         <v>41.310181</v>
       </c>
       <c r="F108" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G108" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>266</v>
+        <v>254</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>420</v>
       </c>
       <c r="D109" s="1">
         <v>30.072724000000001</v>
@@ -4237,21 +4304,21 @@
         <v>40.353726999999999</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D110" s="1">
         <v>17.338950000000001</v>
@@ -4260,21 +4327,21 @@
         <v>43.131400999999997</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D111" s="1">
         <v>19.532979000000001</v>
@@ -4283,21 +4350,21 @@
         <v>43.503368000000002</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D112" s="1">
         <v>25.279633</v>
@@ -4306,21 +4373,21 @@
         <v>45.870711</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D113" s="1">
         <v>31.370989999999999</v>
@@ -4329,21 +4396,21 @@
         <v>41.439948999999999</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="D114" s="1">
         <v>18.100155999999998</v>
@@ -4352,21 +4419,21 @@
         <v>43.117638999999997</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="D115" s="1">
         <v>27.267593000000002</v>
@@ -4375,21 +4442,21 @@
         <v>48.42709</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D116" s="1">
         <v>23.976928000000001</v>
@@ -4398,21 +4465,21 @@
         <v>47.155271999999997</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="D117" s="1">
         <v>35.717683999999998</v>
@@ -4421,21 +4488,21 @@
         <v>36.406824999999998</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>285</v>
+        <v>272</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>421</v>
       </c>
       <c r="D118" s="1">
         <v>31.514769999999999</v>
@@ -4444,21 +4511,21 @@
         <v>37.112566999999999</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="D119" s="1">
         <v>19.943904</v>
@@ -4467,21 +4534,21 @@
         <v>41.242842000000003</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="D120" s="1">
         <v>31.282564000000001</v>
@@ -4490,21 +4557,21 @@
         <v>40.101582000000001</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="D121" s="1">
         <v>19.573253999999999</v>
@@ -4513,21 +4580,21 @@
         <v>41.676099000000001</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="D122" s="1">
         <v>25.247889000000001</v>
@@ -4536,21 +4603,21 @@
         <v>45.253179000000003</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="D123" s="1">
         <v>25.115893</v>
@@ -4559,21 +4626,21 @@
         <v>46.103627000000003</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="D124" s="1">
         <v>23.542763999999998</v>
@@ -4582,21 +4649,21 @@
         <v>45.515281999999999</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D125" s="1">
         <v>20.466460000000001</v>
@@ -4605,21 +4672,21 @@
         <v>45.562559999999998</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>408</v>
+        <v>287</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>422</v>
       </c>
       <c r="D126" s="1">
         <v>23.774208999999999</v>
@@ -4628,21 +4695,21 @@
         <v>44.763002</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="D127" s="1">
         <v>18.241785</v>
@@ -4651,21 +4718,21 @@
         <v>42.488838000000001</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="D128" s="1">
         <v>27.610130000000002</v>
@@ -4674,21 +4741,21 @@
         <v>38.521644000000002</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="D129" s="1">
         <v>24.540604999999999</v>
@@ -4697,21 +4764,21 @@
         <v>46.693131000000001</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="D130" s="1">
         <v>25.069855</v>
@@ -4720,21 +4787,21 @@
         <v>45.464036999999998</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D131" s="3">
         <v>29.8874</v>
@@ -4743,21 +4810,21 @@
         <v>39.320599999999999</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D132" s="3">
         <v>25.419733999999998</v>
@@ -4766,21 +4833,21 @@
         <v>49.676468</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="D133" s="1">
         <v>29.285453</v>
@@ -4789,21 +4856,21 @@
         <v>34.944589000000001</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="D134" s="1">
         <v>18.97634</v>
@@ -4812,21 +4879,21 @@
         <v>41.301167</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="D135" s="1">
         <v>25.563182000000001</v>
@@ -4835,21 +4902,21 @@
         <v>47.160744999999999</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="D136" s="1">
         <v>17.407972000000001</v>
@@ -4858,21 +4925,21 @@
         <v>43.074370999999999</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="D137" s="1">
         <v>19.919412999999999</v>
@@ -4881,21 +4948,21 @@
         <v>40.735523999999998</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D138" s="1">
         <v>25.480855999999999</v>
@@ -4904,21 +4971,21 @@
         <v>49.622691000000003</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="D139" s="1">
         <v>25.710602999999999</v>
@@ -4927,21 +4994,21 @@
         <v>45.872608</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="D140" s="1">
         <v>30.589766999999998</v>
@@ -4950,21 +5017,21 @@
         <v>41.148207999999997</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="D141" s="1">
         <v>25.674498</v>
@@ -4973,21 +5040,21 @@
         <v>49.551423</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="D142" s="1">
         <v>22.276098999999999</v>
@@ -4996,21 +5063,21 @@
         <v>39.112707999999998</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="D143" s="1">
         <v>31.665737</v>
@@ -5019,21 +5086,21 @@
         <v>38.661921999999997</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>332</v>
+        <v>318</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>423</v>
       </c>
       <c r="D144" s="1">
         <v>24.679561</v>
@@ -5042,21 +5109,21 @@
         <v>43.684036999999996</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="D145" s="1">
         <v>19.741637000000001</v>
@@ -5065,21 +5132,21 @@
         <v>41.924492999999998</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="D146" s="1">
         <v>17.664974000000001</v>
@@ -5088,21 +5155,21 @@
         <v>43.517555000000002</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>338</v>
+        <v>323</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>424</v>
       </c>
       <c r="D147" s="1">
         <v>24.130382000000001</v>
@@ -5111,21 +5178,21 @@
         <v>51.570081999999999</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="D148" s="1">
         <v>26.516076000000002</v>
@@ -5134,21 +5201,21 @@
         <v>43.619838999999999</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="D149" s="1">
         <v>19.115787999999998</v>
@@ -5157,21 +5224,21 @@
         <v>42.168045999999997</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="D150" s="1">
         <v>18.793106000000002</v>
@@ -5180,21 +5247,21 @@
         <v>42.255910999999998</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="D151" s="1">
         <v>16.811212999999999</v>
@@ -5203,21 +5270,21 @@
         <v>43.152147999999997</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="D152" s="1">
         <v>27.889050000000001</v>
@@ -5226,21 +5293,21 @@
         <v>42.415892999999997</v>
       </c>
       <c r="F152" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G152" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="D153" s="1">
         <v>27.378982000000001</v>
@@ -5249,21 +5316,21 @@
         <v>44.237861000000002</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="D154" s="1">
         <v>23.624414000000002</v>
@@ -5272,21 +5339,21 @@
         <v>46.511069999999997</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="D155" s="1">
         <v>27.469104999999999</v>
@@ -5295,21 +5362,21 @@
         <v>41.196739000000001</v>
       </c>
       <c r="F155" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G155" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="D156" s="1">
         <v>17.981574999999999</v>
@@ -5318,21 +5385,21 @@
         <v>44.105584999999998</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="D157" s="1">
         <v>17.753822</v>
@@ -5341,21 +5408,21 @@
         <v>43.154803999999999</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>361</v>
+        <v>344</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>425</v>
       </c>
       <c r="D158" s="1">
         <v>17.246535999999999</v>
@@ -5364,21 +5431,21 @@
         <v>43.107962000000001</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="D159" s="1">
         <v>16.711358000000001</v>
@@ -5387,21 +5454,21 @@
         <v>42.956038999999997</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>365</v>
+        <v>347</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>426</v>
       </c>
       <c r="D160" s="1">
         <v>22.497288999999999</v>
@@ -5410,21 +5477,21 @@
         <v>40.442901999999997</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="D161" s="1">
         <v>21.263856000000001</v>
@@ -5433,21 +5500,21 @@
         <v>42.853374000000002</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="D162" s="1">
         <v>17.110188999999998</v>
@@ -5456,21 +5523,21 @@
         <v>42.775911000000001</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>373</v>
+        <v>353</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>427</v>
       </c>
       <c r="D163" s="1">
         <v>25.014095000000001</v>
@@ -5479,21 +5546,21 @@
         <v>43.817810000000001</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="D164" s="3">
         <v>27.448889000000001</v>
@@ -5502,21 +5569,21 @@
         <v>41.167222000000002</v>
       </c>
       <c r="F164" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G164" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="G164" s="3" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="D165" s="1">
         <v>23.905038999999999</v>
@@ -5525,21 +5592,21 @@
         <v>42.912675</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="D166" s="1">
         <v>30.353563999999999</v>
@@ -5548,21 +5615,21 @@
         <v>42.246017999999999</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>394</v>
+        <v>360</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>428</v>
       </c>
       <c r="D167" s="1">
         <v>18.583217999999999</v>
@@ -5571,21 +5638,21 @@
         <v>42.667422999999999</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="D168" s="1">
         <v>23.406562000000001</v>
@@ -5594,21 +5661,21 @@
         <v>43.956432999999997</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="D169" s="1">
         <v>18.933194</v>
@@ -5617,21 +5684,21 @@
         <v>42.175567000000001</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="D170" s="1">
         <v>18.532356</v>
@@ -5640,21 +5707,21 @@
         <v>44.228935</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="C171" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="D171" s="1">
         <v>26.501619999999999</v>
@@ -5663,21 +5730,21 @@
         <v>45.345531999999999</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="D172" s="1">
         <v>23.61806</v>
@@ -5686,21 +5753,21 @@
         <v>45.388869</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="D173" s="1">
         <v>21.645588</v>
@@ -5709,21 +5776,21 @@
         <v>39.701957</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="D174" s="1">
         <v>17.920961999999999</v>
@@ -5732,21 +5799,21 @@
         <v>43.374065999999999</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="D175" s="1">
         <v>17.839884999999999</v>
@@ -5755,21 +5822,21 @@
         <v>44.023803999999998</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="D176" s="1">
         <v>19.996976</v>
@@ -5778,21 +5845,21 @@
         <v>42.226551999999998</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="D177" s="1">
         <v>17.557409</v>
@@ -5801,21 +5868,21 @@
         <v>44.750014999999998</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="D178" s="1">
         <v>26.885753999999999</v>
@@ -5824,21 +5891,21 @@
         <v>43.634118999999998</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="D179" s="1">
         <v>23.007313</v>
@@ -5847,21 +5914,21 @@
         <v>39.884672999999999</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="D180" s="1">
         <v>18.005056</v>
@@ -5870,21 +5937,21 @@
         <v>41.670670000000001</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="D181" s="1">
         <v>25.980965999999999</v>
@@ -5893,21 +5960,21 @@
         <v>48.849434000000002</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="D182" s="1">
         <v>16.418261999999999</v>
@@ -5916,21 +5983,21 @@
         <v>42.824491999999999</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="D183" s="1">
         <v>16.706448999999999</v>
@@ -5939,21 +6006,21 @@
         <v>41.983161000000003</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="D184" s="1">
         <v>17.616883999999999</v>
@@ -5962,21 +6029,21 @@
         <v>42.830247</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="D185" s="1">
         <v>27.176233</v>
@@ -5985,21 +6052,21 @@
         <v>42.443098999999997</v>
       </c>
       <c r="F185" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G185" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="D186" s="1">
         <v>17.879346999999999</v>
@@ -6008,21 +6075,21 @@
         <v>43.719791999999998</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="D187" s="1">
         <v>25.85782</v>
@@ -6031,21 +6098,21 @@
         <v>43.067594999999997</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="D188" s="1">
         <v>24.722766</v>
@@ -6054,21 +6121,21 @@
         <v>42.932467000000003</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="D189" s="1">
         <v>26.770962999999998</v>
@@ -6077,21 +6144,21 @@
         <v>43.473886999999998</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="D190" s="1">
         <v>29.814852999999999</v>
@@ -6100,10 +6167,240 @@
         <v>38.918719000000003</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D191" s="1">
+        <v>25.993690000000001</v>
+      </c>
+      <c r="E191" s="1">
+        <v>40.466208000000002</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D192" s="1">
+        <v>28.481770000000001</v>
+      </c>
+      <c r="E192" s="1">
+        <v>35.018661000000002</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D193" s="1">
+        <v>18.929939999999998</v>
+      </c>
+      <c r="E193" s="1">
+        <v>41.928091000000002</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D194" s="1">
+        <v>24.143189</v>
+      </c>
+      <c r="E194" s="1">
+        <v>49.054803</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D195" s="1">
+        <v>28.306004999999999</v>
+      </c>
+      <c r="E195" s="1">
+        <v>46.119916000000003</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D196" s="1">
+        <v>25.498842</v>
+      </c>
+      <c r="E196" s="1">
+        <v>43.100892000000002</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D197" s="1">
+        <v>25.861777</v>
+      </c>
+      <c r="E197" s="1">
+        <v>50.098292000000001</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D198" s="1">
+        <v>27.829885999999998</v>
+      </c>
+      <c r="E198" s="1">
+        <v>47.503422999999998</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D199" s="1">
+        <v>23.827192</v>
+      </c>
+      <c r="E199" s="1">
+        <v>38.782044999999997</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D200" s="1">
+        <v>28.414908</v>
+      </c>
+      <c r="E200" s="1">
+        <v>36.577728999999998</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021F77F3-E925-47B5-B203-3238A78A3CE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899688B0-D9CF-4FFE-BB68-3B7C74EA2816}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="455">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -1377,10 +1377,28 @@
     <t>بدر</t>
   </si>
   <si>
-    <t>Tabuk Principal</t>
-  </si>
-  <si>
     <t>تبوك (مقرالامارة)</t>
+  </si>
+  <si>
+    <t>Tabuk Province Emirate</t>
+  </si>
+  <si>
+    <t>Al Baha Province Emirate</t>
+  </si>
+  <si>
+    <t>الباحة (مقرالامارة)</t>
+  </si>
+  <si>
+    <t>Al Houta</t>
+  </si>
+  <si>
+    <t>الحوطة</t>
+  </si>
+  <si>
+    <t>Raqai</t>
+  </si>
+  <si>
+    <t>الرقعي</t>
   </si>
 </sst>
 </file>
@@ -1785,11 +1803,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G200"/>
+  <dimension ref="A1:G203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G200"/>
+      <selection pane="bottomLeft" sqref="A1:G203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6382,13 +6400,13 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="D200" s="1">
         <v>28.414908</v>
@@ -6401,6 +6419,75 @@
       </c>
       <c r="G200" s="1" t="s">
         <v>214</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D201" s="1">
+        <v>20.01211</v>
+      </c>
+      <c r="E201" s="1">
+        <v>41.467326999999997</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D202" s="1">
+        <v>23.525065000000001</v>
+      </c>
+      <c r="E202" s="1">
+        <v>46.845830999999997</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D203" s="1">
+        <v>29.066296999999999</v>
+      </c>
+      <c r="E203" s="1">
+        <v>46.638584000000002</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899688B0-D9CF-4FFE-BB68-3B7C74EA2816}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE99F12-8D3F-40D4-B17C-B13D8811897D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="457">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -1399,6 +1399,12 @@
   </si>
   <si>
     <t>الرقعي</t>
+  </si>
+  <si>
+    <t>Ath Thybiyah</t>
+  </si>
+  <si>
+    <t>الذيبية</t>
   </si>
 </sst>
 </file>
@@ -1803,11 +1809,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G203"/>
+  <dimension ref="A1:G204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G203"/>
+      <selection pane="bottomLeft" sqref="A1:G204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6490,6 +6496,29 @@
         <v>220</v>
       </c>
     </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D204" s="1">
+        <v>28.119717000000001</v>
+      </c>
+      <c r="E204" s="1">
+        <v>45.663277999999998</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G91" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE99F12-8D3F-40D4-B17C-B13D8811897D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509B2B81-8FF1-4B0E-B892-91264FA45757}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509B2B81-8FF1-4B0E-B892-91264FA45757}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A192BD54-32B5-4EA7-BB30-F0D9B40A2D93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="461">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -1405,6 +1405,18 @@
   </si>
   <si>
     <t>الذيبية</t>
+  </si>
+  <si>
+    <t>Birk</t>
+  </si>
+  <si>
+    <t>البرك</t>
+  </si>
+  <si>
+    <t>Sulaimi</t>
+  </si>
+  <si>
+    <t>السليمي</t>
   </si>
 </sst>
 </file>
@@ -1809,11 +1821,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G204"/>
+  <dimension ref="A1:G206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G204"/>
+      <selection pane="bottomLeft" sqref="A1:G206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6519,6 +6531,52 @@
         <v>220</v>
       </c>
     </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D205" s="1">
+        <v>18.207560999999998</v>
+      </c>
+      <c r="E205" s="1">
+        <v>41.536968000000002</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D206" s="1">
+        <v>26.289522000000002</v>
+      </c>
+      <c r="E206" s="1">
+        <v>41.365994999999998</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G91" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A192BD54-32B5-4EA7-BB30-F0D9B40A2D93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63B6B61-0313-4708-B141-7AF379F566CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="463">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -1417,6 +1417,12 @@
   </si>
   <si>
     <t>السليمي</t>
+  </si>
+  <si>
+    <t>Al-Dalmawi</t>
+  </si>
+  <si>
+    <t>الظلماوي</t>
   </si>
 </sst>
 </file>
@@ -1821,11 +1827,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G206"/>
+  <dimension ref="A1:G207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G206"/>
+      <selection pane="bottomLeft" sqref="A1:G207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6577,6 +6583,29 @@
         <v>214</v>
       </c>
     </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D207" s="1">
+        <v>24.649664000000001</v>
+      </c>
+      <c r="E207" s="1">
+        <v>43.570039999999999</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G91" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63B6B61-0313-4708-B141-7AF379F566CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5C40EA-DE23-4371-8F9F-BDDABADA87C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="465">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -1423,6 +1423,12 @@
   </si>
   <si>
     <t>الظلماوي</t>
+  </si>
+  <si>
+    <t>Bani Hasan</t>
+  </si>
+  <si>
+    <t>بني حسن</t>
   </si>
 </sst>
 </file>
@@ -1827,11 +1833,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G207"/>
+  <dimension ref="A1:G208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G207"/>
+      <selection pane="bottomLeft" sqref="A1:G208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6606,6 +6612,29 @@
         <v>212</v>
       </c>
     </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D208" s="1">
+        <v>20.057017999999999</v>
+      </c>
+      <c r="E208" s="1">
+        <v>41.367431000000003</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G91" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5C40EA-DE23-4371-8F9F-BDDABADA87C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA26E4D-E5A1-4B20-8F2F-1A093617A8BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="467">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -1429,6 +1429,12 @@
   </si>
   <si>
     <t>بني حسن</t>
+  </si>
+  <si>
+    <t>Suwayr</t>
+  </si>
+  <si>
+    <t>صوير</t>
   </si>
 </sst>
 </file>
@@ -1833,11 +1839,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G208"/>
+  <dimension ref="A1:G209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G208"/>
+      <selection pane="bottomLeft" sqref="A1:G209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6635,6 +6641,29 @@
         <v>217</v>
       </c>
     </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D209" s="1">
+        <v>30.114979000000002</v>
+      </c>
+      <c r="E209" s="1">
+        <v>40.378875000000001</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G91" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA26E4D-E5A1-4B20-8F2F-1A093617A8BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6470F2E7-EE89-4FFD-8045-7639DE8C83A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="469">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -1435,6 +1435,12 @@
   </si>
   <si>
     <t>صوير</t>
+  </si>
+  <si>
+    <t>As Sufayri</t>
+  </si>
+  <si>
+    <t>الصفيري</t>
   </si>
 </sst>
 </file>
@@ -1839,11 +1845,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G209"/>
+  <dimension ref="A1:G210"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G209"/>
+      <selection pane="bottomLeft" sqref="A1:G210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6664,6 +6670,29 @@
         <v>214</v>
       </c>
     </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D210" s="1">
+        <v>28.533577999999999</v>
+      </c>
+      <c r="E210" s="1">
+        <v>45.802281000000001</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G91" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6470F2E7-EE89-4FFD-8045-7639DE8C83A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5DA904-E082-46DC-9815-54F17E73C57C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="471">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -1441,6 +1441,12 @@
   </si>
   <si>
     <t>الصفيري</t>
+  </si>
+  <si>
+    <t>Sumaira</t>
+  </si>
+  <si>
+    <t>سميراء</t>
   </si>
 </sst>
 </file>
@@ -1845,11 +1851,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G210"/>
+  <dimension ref="A1:G211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G210"/>
+      <selection pane="bottomLeft" sqref="A1:G211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6693,6 +6699,29 @@
         <v>220</v>
       </c>
     </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D211" s="1">
+        <v>26.495999999999999</v>
+      </c>
+      <c r="E211" s="1">
+        <v>42.125788</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G91" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5DA904-E082-46DC-9815-54F17E73C57C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A118B14-64BF-4EFD-B1B7-91F17D32D1DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="473">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -1447,6 +1447,12 @@
   </si>
   <si>
     <t>سميراء</t>
+  </si>
+  <si>
+    <t>Al Ghat</t>
+  </si>
+  <si>
+    <t>الغاط</t>
   </si>
 </sst>
 </file>
@@ -1851,11 +1857,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G211"/>
+  <dimension ref="A1:G212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G211"/>
+      <selection pane="bottomLeft" sqref="A1:G212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6722,6 +6728,29 @@
         <v>214</v>
       </c>
     </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D212" s="1">
+        <v>26.030308999999999</v>
+      </c>
+      <c r="E212" s="1">
+        <v>44.946579</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G91" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A118B14-64BF-4EFD-B1B7-91F17D32D1DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBABFC8C-0D36-4CA0-8968-12A2CF422C21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="475">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -1453,6 +1453,12 @@
   </si>
   <si>
     <t>الغاط</t>
+  </si>
+  <si>
+    <t>Hajrah</t>
+  </si>
+  <si>
+    <t>الحجرة</t>
   </si>
 </sst>
 </file>
@@ -1857,11 +1863,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G212"/>
+  <dimension ref="A1:G213"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G212"/>
+      <selection pane="bottomLeft" sqref="A1:G213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6751,6 +6757,29 @@
         <v>212</v>
       </c>
     </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D213" s="1">
+        <v>20.233799999999999</v>
+      </c>
+      <c r="E213" s="1">
+        <v>41.053882000000002</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G91" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBABFC8C-0D36-4CA0-8968-12A2CF422C21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB97CE1A-BE75-4ED2-8FB2-C736470D8744}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="477">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -1459,6 +1459,12 @@
   </si>
   <si>
     <t>الحجرة</t>
+  </si>
+  <si>
+    <t>Abu Rakh</t>
+  </si>
+  <si>
+    <t>أبوراكة</t>
   </si>
 </sst>
 </file>
@@ -1863,11 +1869,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G213"/>
+  <dimension ref="A1:G214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G213"/>
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:G214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6780,6 +6786,29 @@
         <v>217</v>
       </c>
     </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D214" s="1">
+        <v>20.910491</v>
+      </c>
+      <c r="E214" s="1">
+        <v>41.183213000000002</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G91" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB97CE1A-BE75-4ED2-8FB2-C736470D8744}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8D4484-452F-4AD3-88B1-8DFC1C3C6760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="479">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -1465,6 +1465,12 @@
   </si>
   <si>
     <t>أبوراكة</t>
+  </si>
+  <si>
+    <t>Abu Ajram</t>
+  </si>
+  <si>
+    <t>أبو عجرم</t>
   </si>
 </sst>
 </file>
@@ -1869,11 +1875,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G214"/>
+  <dimension ref="A1:G215"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G214"/>
+      <selection pane="bottomLeft" sqref="A1:G215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6809,6 +6815,29 @@
         <v>213</v>
       </c>
     </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D215" s="1">
+        <v>29.888501999999999</v>
+      </c>
+      <c r="E215" s="1">
+        <v>39.306550000000001</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G91" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8D4484-452F-4AD3-88B1-8DFC1C3C6760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD7AAAA-57C4-43CB-84BE-99464B381EC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="481">
   <si>
     <t xml:space="preserve">City </t>
   </si>
@@ -1471,6 +1471,12 @@
   </si>
   <si>
     <t>أبو عجرم</t>
+  </si>
+  <si>
+    <t>Wadi Taraj</t>
+  </si>
+  <si>
+    <t>ترج</t>
   </si>
 </sst>
 </file>
@@ -1875,11 +1881,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57D8B15-D5B7-4FBF-8FDE-C15F0B41649A}">
-  <dimension ref="A1:G215"/>
+  <dimension ref="A1:G216"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G215"/>
+      <selection pane="bottomLeft" sqref="A1:G216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6838,6 +6844,29 @@
         <v>214</v>
       </c>
     </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D216" s="1">
+        <v>19.479142</v>
+      </c>
+      <c r="E216" s="1">
+        <v>42.353231000000001</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G91" xr:uid="{9512CF35-4986-4A3D-9186-74E685FB0457}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">

--- a/KSA_Cities.xlsx
+++ b/KSA_Cities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\COVID-19\KSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94993592-B96F-4C59-9103-2933FD0970B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4287811-994A-4256-96CC-A7E04E330135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
+    <workbookView xWindow="0" yWindow="870" windowWidth="28800" windowHeight="15330" xr2:uid="{860B2751-BD99-40C6-B086-25379EB5B7AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -741,9 +741,6 @@
     <t>Umluj</t>
   </si>
   <si>
-    <t>املج</t>
-  </si>
-  <si>
     <t>Al Darb</t>
   </si>
   <si>
@@ -1356,9 +1353,6 @@
     <t>Samudah</t>
   </si>
   <si>
-    <t xml:space="preserve">سامودة </t>
-  </si>
-  <si>
     <t>Qaryat</t>
   </si>
   <si>
@@ -1483,6 +1477,12 @@
   </si>
   <si>
     <t>الحجر</t>
+  </si>
+  <si>
+    <t>أملج</t>
+  </si>
+  <si>
+    <t>سامودة</t>
   </si>
 </sst>
 </file>
@@ -1538,7 +1538,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1561,17 +1561,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1890,8 +1902,8 @@
   <dimension ref="A1:G217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G217" sqref="G217"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:G217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2327,7 +2339,7 @@
         <v>186</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D19" s="1">
         <v>29.627300000000002</v>
@@ -2557,7 +2569,7 @@
         <v>183</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D29" s="1">
         <v>23.525065000000001</v>
@@ -2902,7 +2914,7 @@
         <v>116</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D44" s="1">
         <v>27.345700000000001</v>
@@ -3155,7 +3167,7 @@
         <v>100</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D55" s="1">
         <v>18.5474</v>
@@ -3339,7 +3351,7 @@
         <v>94</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D63" s="1">
         <v>22.741800000000001</v>
@@ -3454,7 +3466,7 @@
         <v>199</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D68" s="1">
         <v>21.208628000000001</v>
@@ -3638,7 +3650,7 @@
         <v>98</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D76" s="1">
         <v>19.5718</v>
@@ -3960,7 +3972,7 @@
         <v>200</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D90" s="1">
         <v>20.595102499999999</v>
@@ -3983,7 +3995,7 @@
         <v>222</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D91" s="1">
         <v>20.435752999999998</v>
@@ -4120,8 +4132,8 @@
       <c r="B97" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>235</v>
+      <c r="C97" s="5" t="s">
+        <v>481</v>
       </c>
       <c r="D97" s="1">
         <v>25.049199999999999</v>
@@ -4138,13 +4150,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="D98" s="1">
         <v>17.734352999999999</v>
@@ -4161,13 +4173,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="D99" s="1">
         <v>26.661256999999999</v>
@@ -4184,13 +4196,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D100" s="1">
         <v>27.557566000000001</v>
@@ -4207,13 +4219,13 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="D101" s="1">
         <v>24.741019999999999</v>
@@ -4230,13 +4242,13 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="D102" s="1">
         <v>25.686066</v>
@@ -4253,13 +4265,13 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D103" s="1">
         <v>17.237791999999999</v>
@@ -4276,13 +4288,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D104" s="1">
         <v>24.613032</v>
@@ -4299,13 +4311,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="D105" s="1">
         <v>22.290050000000001</v>
@@ -4322,13 +4334,13 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="D106" s="1">
         <v>21.05489</v>
@@ -4345,13 +4357,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="D107" s="1">
         <v>22.284344999999998</v>
@@ -4368,13 +4380,13 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D108" s="1">
         <v>26.788481000000001</v>
@@ -4391,13 +4403,13 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D109" s="1">
         <v>30.072724000000001</v>
@@ -4414,13 +4426,13 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="D110" s="1">
         <v>17.338950000000001</v>
@@ -4437,13 +4449,13 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="D111" s="1">
         <v>19.532979000000001</v>
@@ -4460,13 +4472,13 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="D112" s="1">
         <v>25.279633</v>
@@ -4483,13 +4495,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="D113" s="1">
         <v>31.370989999999999</v>
@@ -4506,13 +4518,13 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="D114" s="1">
         <v>18.100155999999998</v>
@@ -4529,13 +4541,13 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="D115" s="1">
         <v>27.267593000000002</v>
@@ -4552,13 +4564,13 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="D116" s="1">
         <v>23.976928000000001</v>
@@ -4575,13 +4587,13 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D117" s="1">
         <v>35.717683999999998</v>
@@ -4598,13 +4610,13 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D118" s="1">
         <v>31.514769999999999</v>
@@ -4621,13 +4633,13 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="D119" s="1">
         <v>19.943904</v>
@@ -4644,13 +4656,13 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="D120" s="1">
         <v>31.282564000000001</v>
@@ -4667,13 +4679,13 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="D121" s="1">
         <v>19.573253999999999</v>
@@ -4690,13 +4702,13 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="D122" s="1">
         <v>25.247889000000001</v>
@@ -4713,13 +4725,13 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="D123" s="1">
         <v>25.115893</v>
@@ -4736,13 +4748,13 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="D124" s="1">
         <v>23.542763999999998</v>
@@ -4759,13 +4771,13 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="D125" s="1">
         <v>20.466460000000001</v>
@@ -4782,13 +4794,13 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D126" s="1">
         <v>23.774208999999999</v>
@@ -4805,13 +4817,13 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="D127" s="1">
         <v>18.241785</v>
@@ -4828,13 +4840,13 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="D128" s="1">
         <v>27.610130000000002</v>
@@ -4851,13 +4863,13 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="D129" s="1">
         <v>24.540604999999999</v>
@@ -4874,13 +4886,13 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="D130" s="1">
         <v>25.069855</v>
@@ -4920,13 +4932,13 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="D132" s="3">
         <v>25.419733999999998</v>
@@ -4943,13 +4955,13 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="D133" s="1">
         <v>29.285453</v>
@@ -4966,13 +4978,13 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="D134" s="1">
         <v>18.97634</v>
@@ -4989,13 +5001,13 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="D135" s="1">
         <v>25.563182000000001</v>
@@ -5012,13 +5024,13 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="D136" s="1">
         <v>17.407972000000001</v>
@@ -5035,13 +5047,13 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="D137" s="1">
         <v>19.919412999999999</v>
@@ -5058,13 +5070,13 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="D138" s="1">
         <v>25.480855999999999</v>
@@ -5081,13 +5093,13 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="D139" s="1">
         <v>25.710602999999999</v>
@@ -5104,13 +5116,13 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="D140" s="1">
         <v>30.589766999999998</v>
@@ -5127,13 +5139,13 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="D141" s="1">
         <v>25.674498</v>
@@ -5150,13 +5162,13 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="D142" s="1">
         <v>22.276098999999999</v>
@@ -5173,13 +5185,13 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="D143" s="1">
         <v>31.665737</v>
@@ -5196,13 +5208,13 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D144" s="1">
         <v>24.679561</v>
@@ -5219,13 +5231,13 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="D145" s="1">
         <v>19.741637000000001</v>
@@ -5242,13 +5254,13 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="D146" s="1">
         <v>17.664974000000001</v>
@@ -5265,13 +5277,13 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D147" s="1">
         <v>24.130382000000001</v>
@@ -5288,13 +5300,13 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="D148" s="1">
         <v>26.516076000000002</v>
@@ -5311,13 +5323,13 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="D149" s="1">
         <v>19.115787999999998</v>
@@ -5334,13 +5346,13 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="D150" s="1">
         <v>18.793106000000002</v>
@@ -5357,13 +5369,13 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="D151" s="1">
         <v>16.811212999999999</v>
@@ -5380,13 +5392,13 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="D152" s="1">
         <v>27.889050000000001</v>
@@ -5403,13 +5415,13 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="D153" s="1">
         <v>27.378982000000001</v>
@@ -5426,13 +5438,13 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="D154" s="1">
         <v>23.624414000000002</v>
@@ -5449,13 +5461,13 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="D155" s="1">
         <v>27.469104999999999</v>
@@ -5472,13 +5484,13 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="D156" s="1">
         <v>17.981574999999999</v>
@@ -5495,13 +5507,13 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="D157" s="1">
         <v>17.753822</v>
@@ -5518,13 +5530,13 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D158" s="1">
         <v>17.246535999999999</v>
@@ -5541,13 +5553,13 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="D159" s="1">
         <v>16.711358000000001</v>
@@ -5564,13 +5576,13 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D160" s="1">
         <v>22.497288999999999</v>
@@ -5587,13 +5599,13 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="D161" s="1">
         <v>21.263856000000001</v>
@@ -5610,13 +5622,13 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="D162" s="1">
         <v>17.110188999999998</v>
@@ -5633,13 +5645,13 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D163" s="1">
         <v>25.014095000000001</v>
@@ -5656,13 +5668,13 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>355</v>
       </c>
       <c r="D164" s="3">
         <v>27.448889000000001</v>
@@ -5679,13 +5691,13 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="D165" s="1">
         <v>23.905038999999999</v>
@@ -5702,13 +5714,13 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="D166" s="1">
         <v>30.353563999999999</v>
@@ -5725,13 +5737,13 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D167" s="1">
         <v>18.583217999999999</v>
@@ -5748,13 +5760,13 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="D168" s="1">
         <v>23.406562000000001</v>
@@ -5771,13 +5783,13 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="D169" s="1">
         <v>18.933194</v>
@@ -5794,13 +5806,13 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="D170" s="1">
         <v>18.532356</v>
@@ -5817,13 +5829,13 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C171" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D171" s="1">
         <v>26.501619999999999</v>
@@ -5840,13 +5852,13 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="D172" s="1">
         <v>23.61806</v>
@@ -5863,13 +5875,13 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="D173" s="1">
         <v>21.645588</v>
@@ -5886,13 +5898,13 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="D174" s="1">
         <v>17.920961999999999</v>
@@ -5909,13 +5921,13 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="D175" s="1">
         <v>17.839884999999999</v>
@@ -5932,13 +5944,13 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="D176" s="1">
         <v>19.996976</v>
@@ -5955,13 +5967,13 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="D177" s="1">
         <v>17.557409</v>
@@ -5978,13 +5990,13 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="D178" s="1">
         <v>26.885753999999999</v>
@@ -6001,13 +6013,13 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="D179" s="1">
         <v>23.007313</v>
@@ -6024,13 +6036,13 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="D180" s="1">
         <v>18.005056</v>
@@ -6047,13 +6059,13 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="D181" s="1">
         <v>25.980965999999999</v>
@@ -6070,13 +6082,13 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="D182" s="1">
         <v>16.418261999999999</v>
@@ -6093,13 +6105,13 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="D183" s="1">
         <v>16.706448999999999</v>
@@ -6116,13 +6128,13 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="D184" s="1">
         <v>17.616883999999999</v>
@@ -6139,13 +6151,13 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="D185" s="1">
         <v>27.176233</v>
@@ -6162,13 +6174,13 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="D186" s="1">
         <v>17.879346999999999</v>
@@ -6185,13 +6197,13 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C187" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="D187" s="1">
         <v>25.85782</v>
@@ -6208,13 +6220,13 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="D188" s="1">
         <v>24.722766</v>
@@ -6231,13 +6243,13 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="D189" s="1">
         <v>26.770962999999998</v>
@@ -6254,13 +6266,13 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>406</v>
       </c>
       <c r="D190" s="1">
         <v>29.814852999999999</v>
@@ -6277,13 +6289,13 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="D191" s="1">
         <v>25.993690000000001</v>
@@ -6300,13 +6312,13 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="D192" s="1">
         <v>28.481770000000001</v>
@@ -6323,13 +6335,13 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="D193" s="1">
         <v>18.929939999999998</v>
@@ -6346,13 +6358,13 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="D194" s="1">
         <v>24.143189</v>
@@ -6369,13 +6381,13 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="D195" s="1">
         <v>28.306004999999999</v>
@@ -6392,13 +6404,13 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
+      </c>
+      <c r="C196" t="s">
+        <v>482</v>
       </c>
       <c r="D196" s="1">
         <v>25.498842</v>
@@ -6415,13 +6427,13 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D197" s="1">
         <v>25.861777</v>
@@ -6438,13 +6450,13 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D198" s="1">
         <v>27.829885999999998</v>
@@ -6461,13 +6473,13 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D199" s="1">
         <v>23.827192</v>
@@ -6484,13 +6496,13 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D200" s="1">
         <v>28.414908</v>
@@ -6507,13 +6519,13 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D201" s="1">
         <v>20.01211</v>
@@ -6530,13 +6542,13 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D202" s="1">
         <v>23.525065000000001</v>
@@ -6553,13 +6565,13 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D203" s="1">
         <v>29.066296999999999</v>
@@ -6576,13 +6588,13 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D204" s="1">
         <v>28.119717000000001</v>
@@ -6599,13 +6611,13 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D205" s="1">
         <v>18.207560999999998</v>
@@ -6622,13 +6634,13 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D206" s="1">
         <v>26.289522000000002</v>
@@ -6645,13 +6657,13 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D207" s="1">
         <v>24.649664000000001</v>
@@ -6668,13 +6680,13 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D208" s="1">
         <v>20.057017999999999</v>
@@ -6691,13 +6703,13 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D209" s="1">
         <v>30.114979000000002</v>
@@ -6714,13 +6726,13 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D210" s="1">
         <v>28.533577999999999</v>
@@ -6737,13 +6749,13 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D211" s="1">
         <v>26.495999999999999</v>
@@ -6760,13 +6772,13 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D212" s="1">
         <v>26.030308999999999</v>
@@ -6783,13 +6795,13 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D213" s="1">
         <v>20.233799999999999</v>
@@ -6806,13 +6818,13 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D214" s="1">
         <v>20.910491</v>
@@ -6829,13 +6841,13 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D215" s="1">
         <v>29.888501999999999</v>
@@ -6852,13 +6864,13 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D216" s="1">
         <v>19.479142</v>
@@ -6875,13 +6887,13 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D217" s="1">
         <v>26.891022</v>
